--- a/Report/AA/CP_LV.xlsx
+++ b/Report/AA/CP_LV.xlsx
@@ -506,10 +506,10 @@
         <v>40939</v>
       </c>
       <c r="B2" t="n">
-        <v>6.037340641021729</v>
+        <v>6.037341117858887</v>
       </c>
       <c r="C2" t="n">
-        <v>88.25540161132812</v>
+        <v>88.25535583496094</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -540,34 +540,34 @@
         <v>40968</v>
       </c>
       <c r="B3" t="n">
-        <v>6.547319889068604</v>
+        <v>6.547320365905762</v>
       </c>
       <c r="C3" t="n">
-        <v>87.28469848632812</v>
+        <v>87.28469085693359</v>
       </c>
       <c r="D3" t="n">
-        <v>8.447084210914579</v>
+        <v>8.44708354375272</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.09987956235803</v>
+        <v>-1.099836909436414</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65.06825052654875</v>
+        <v>65.06825012625163</v>
       </c>
       <c r="H3" t="n">
-        <v>39.56004817505679</v>
+        <v>39.56006523622543</v>
       </c>
       <c r="I3" t="n">
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.099879562358037</v>
+        <v>-1.099836909436416</v>
       </c>
       <c r="K3" t="n">
-        <v>104.6282987016055</v>
+        <v>104.6283153624771</v>
       </c>
       <c r="L3" t="n">
         <v>-0</v>
@@ -578,34 +578,34 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>6.986535549163818</v>
+        <v>6.986536979675293</v>
       </c>
       <c r="C4" t="n">
         <v>85.89575958251953</v>
       </c>
       <c r="D4" t="n">
-        <v>6.70832749181125</v>
+        <v>6.708341569120235</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.591274218614791</v>
+        <v>-1.591265616888793</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.43324186506185</v>
+        <v>69.4332505977701</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93053932757552</v>
+        <v>38.93055952010261</v>
       </c>
       <c r="I4" t="n">
         <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.673651681061209</v>
+        <v>-2.673601199743487</v>
       </c>
       <c r="K4" t="n">
-        <v>108.3637811926374</v>
+        <v>108.3638101178727</v>
       </c>
       <c r="L4" t="n">
         <v>-0</v>
@@ -619,34 +619,34 @@
         <v>6.874004364013672</v>
       </c>
       <c r="C5" t="n">
-        <v>88.05101013183594</v>
+        <v>88.05103302001953</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.61068650346472</v>
+        <v>-1.610706648930538</v>
       </c>
       <c r="E5" t="n">
-        <v>2.509146621197145</v>
+        <v>2.509173267662224</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>68.31489000942328</v>
+        <v>68.31488461382321</v>
       </c>
       <c r="H5" t="n">
-        <v>39.9073636397272</v>
+        <v>39.90739471253235</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.610686503464718</v>
+        <v>-1.610706648930541</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2315909006819972</v>
+        <v>-0.2315132186691216</v>
       </c>
       <c r="K5" t="n">
-        <v>108.2222536491505</v>
+        <v>108.2222793263556</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1306041021541092</v>
+        <v>-0.1306070646308865</v>
       </c>
     </row>
     <row r="6">
@@ -654,37 +654,37 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>6.092267990112305</v>
+        <v>6.092269420623779</v>
       </c>
       <c r="C6" t="n">
-        <v>90.57767486572266</v>
+        <v>90.57769012451172</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.37235783546867</v>
+        <v>-11.37233702501528</v>
       </c>
       <c r="E6" t="n">
-        <v>2.869546561820946</v>
+        <v>2.869537151162915</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>60.54587626264482</v>
+        <v>60.54588569728893</v>
       </c>
       <c r="H6" t="n">
-        <v>41.05252402096438</v>
+        <v>41.05255222986969</v>
       </c>
       <c r="I6" t="n">
-        <v>-12.79987130615179</v>
+        <v>-12.7998686853451</v>
       </c>
       <c r="J6" t="n">
         <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>101.5984002836092</v>
+        <v>101.5984379271586</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.243212293415079</v>
+        <v>-6.243202581521504</v>
       </c>
     </row>
     <row r="7">
@@ -695,34 +695,34 @@
         <v>6.53499698638916</v>
       </c>
       <c r="C7" t="n">
-        <v>90.20243835449219</v>
+        <v>90.20243072509766</v>
       </c>
       <c r="D7" t="n">
-        <v>7.267063710844646</v>
+        <v>7.267038523717329</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.41427041684029</v>
+        <v>-0.4142956161701794</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>64.94578366494039</v>
+        <v>64.94577853543677</v>
       </c>
       <c r="H7" t="n">
-        <v>40.88245555857927</v>
+        <v>40.88247330565537</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.462982398031309</v>
+        <v>-6.463001549977042</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4142704168402924</v>
+        <v>-0.4142956161701786</v>
       </c>
       <c r="K7" t="n">
-        <v>105.8282392235197</v>
+        <v>105.8282518410921</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.339842649649047</v>
+        <v>-2.339857074075293</v>
       </c>
     </row>
     <row r="8">
@@ -730,37 +730,37 @@
         <v>41121</v>
       </c>
       <c r="B8" t="n">
-        <v>6.700379848480225</v>
+        <v>6.700378894805908</v>
       </c>
       <c r="C8" t="n">
-        <v>91.46628570556641</v>
+        <v>91.46629333496094</v>
       </c>
       <c r="D8" t="n">
-        <v>2.530725912123866</v>
+        <v>2.530711318784062</v>
       </c>
       <c r="E8" t="n">
-        <v>1.401123266875937</v>
+        <v>1.401140301545811</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>66.58938344098095</v>
+        <v>66.58936870390551</v>
       </c>
       <c r="H8" t="n">
-        <v>41.45526915548074</v>
+        <v>41.45529411540961</v>
       </c>
       <c r="I8" t="n">
-        <v>-4.095816856150418</v>
+        <v>-4.095850142951429</v>
       </c>
       <c r="J8" t="n">
         <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>108.0446525964617</v>
+        <v>108.0446628193151</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2944974719997646</v>
+        <v>-0.2945146522722198</v>
       </c>
     </row>
     <row r="9">
@@ -768,34 +768,34 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>7.009572982788086</v>
+        <v>7.00957202911377</v>
       </c>
       <c r="C9" t="n">
-        <v>91.35899353027344</v>
+        <v>91.35897827148438</v>
       </c>
       <c r="D9" t="n">
-        <v>4.614561283088925</v>
+        <v>4.614561939885897</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1173024294857106</v>
+        <v>-0.1173274433277416</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>69.66219134789608</v>
+        <v>69.66217636812623</v>
       </c>
       <c r="H9" t="n">
-        <v>41.40664111761151</v>
+        <v>41.40665567870001</v>
       </c>
       <c r="I9" t="n">
         <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1173024294857157</v>
+        <v>-0.1173274433277501</v>
       </c>
       <c r="K9" t="n">
-        <v>111.0688324655076</v>
+        <v>111.0688320468262</v>
       </c>
       <c r="L9" t="n">
         <v>-0</v>
@@ -806,34 +806,34 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>7.350564002990723</v>
+        <v>7.350565433502197</v>
       </c>
       <c r="C10" t="n">
-        <v>91.04087829589844</v>
+        <v>91.04087066650391</v>
       </c>
       <c r="D10" t="n">
-        <v>4.864647547574386</v>
+        <v>4.864682222711103</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3482035233560055</v>
+        <v>-0.3481952305061653</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>73.05101143088808</v>
+        <v>73.05101987786011</v>
       </c>
       <c r="H10" t="n">
-        <v>41.26246173433661</v>
+        <v>41.26247967851466</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4650975016492769</v>
+        <v>-0.4651141452721806</v>
       </c>
       <c r="K10" t="n">
-        <v>114.3134731652247</v>
+        <v>114.3134995563748</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
@@ -844,37 +844,37 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>7.045590877532959</v>
+        <v>7.045591354370117</v>
       </c>
       <c r="C11" t="n">
-        <v>90.68029022216797</v>
+        <v>90.68028259277344</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.148975851835035</v>
+        <v>-4.148988018555388</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3960727098419436</v>
+        <v>-0.3960727430335709</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>70.02014260709929</v>
+        <v>70.02014181569518</v>
       </c>
       <c r="H11" t="n">
-        <v>41.09903238399793</v>
+        <v>41.09905024340829</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.148975851835029</v>
+        <v>-4.148988018555387</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.8593280872130296</v>
+        <v>-0.8593446979523424</v>
       </c>
       <c r="K11" t="n">
-        <v>111.1191749910972</v>
+        <v>111.1191920591035</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.794332186469867</v>
+        <v>-2.794339697120368</v>
       </c>
     </row>
     <row r="12">
@@ -885,34 +885,34 @@
         <v>7.11162805557251</v>
       </c>
       <c r="C12" t="n">
-        <v>91.56819152832031</v>
+        <v>91.56818389892578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9372837450742466</v>
+        <v>0.9372769137601544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9791557834419873</v>
+        <v>0.9791558658233557</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>70.67643002203344</v>
+        <v>70.67642443991582</v>
       </c>
       <c r="H12" t="n">
-        <v>41.50145593652454</v>
+        <v>41.50147400466431</v>
       </c>
       <c r="I12" t="n">
-        <v>-3.250579783007078</v>
+        <v>-3.25059861164782</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>112.177885958558</v>
+        <v>112.1778984445801</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.868185042002876</v>
+        <v>-1.868196774731274</v>
       </c>
     </row>
     <row r="13">
@@ -920,37 +920,37 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>7.259578227996826</v>
+        <v>7.259577751159668</v>
       </c>
       <c r="C13" t="n">
-        <v>90.70712280273438</v>
+        <v>90.7071533203125</v>
       </c>
       <c r="D13" t="n">
-        <v>2.080398064524558</v>
+        <v>2.080391359489453</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9403579029073961</v>
+        <v>-0.9403163216207266</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>67.95478489205442</v>
+        <v>67.95479972282712</v>
       </c>
       <c r="H13" t="n">
-        <v>45.30318992803628</v>
+        <v>45.30319981521808</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.237806717374018</v>
+        <v>-1.237832424806763</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.9403579029073877</v>
+        <v>-0.940316321620722</v>
       </c>
       <c r="K13" t="n">
-        <v>113.2579748200907</v>
+        <v>113.2579995380452</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.9233367825404251</v>
+        <v>-0.9233380330632359</v>
       </c>
     </row>
     <row r="14">
@@ -958,34 +958,34 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>8.005388259887695</v>
+        <v>8.005386352539062</v>
       </c>
       <c r="C14" t="n">
-        <v>89.53423309326172</v>
+        <v>89.5341796875</v>
       </c>
       <c r="D14" t="n">
-        <v>10.27346229309336</v>
+        <v>10.27344326273325</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.293051386960431</v>
+        <v>-1.293143473117719</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>74.93609409429233</v>
+        <v>74.93609751665578</v>
       </c>
       <c r="H14" t="n">
-        <v>44.71739640233449</v>
+        <v>44.71736444369411</v>
       </c>
       <c r="I14" t="n">
         <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.293051386960425</v>
+        <v>-1.293143473117717</v>
       </c>
       <c r="K14" t="n">
-        <v>119.6534904966268</v>
+        <v>119.6534619603499</v>
       </c>
       <c r="L14" t="n">
         <v>-0</v>
@@ -996,34 +996,34 @@
         <v>41333</v>
       </c>
       <c r="B15" t="n">
-        <v>8.178605079650879</v>
+        <v>8.178606033325195</v>
       </c>
       <c r="C15" t="n">
-        <v>90.54814147949219</v>
+        <v>90.54813385009766</v>
       </c>
       <c r="D15" t="n">
-        <v>2.163752889177339</v>
+        <v>2.163789143433315</v>
       </c>
       <c r="E15" t="n">
-        <v>1.132425387699865</v>
+        <v>1.132477190427883</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.55752599529423</v>
+        <v>76.55755665923378</v>
       </c>
       <c r="H15" t="n">
-        <v>45.22378755191291</v>
+        <v>45.22377839617945</v>
       </c>
       <c r="I15" t="n">
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1752688414425095</v>
+        <v>-0.175310837562395</v>
       </c>
       <c r="K15" t="n">
-        <v>121.7813135472071</v>
+        <v>121.7813350554132</v>
       </c>
       <c r="L15" t="n">
         <v>-0</v>
@@ -1037,22 +1037,22 @@
         <v>8.78279972076416</v>
       </c>
       <c r="C16" t="n">
-        <v>90.80784606933594</v>
+        <v>90.80783081054688</v>
       </c>
       <c r="D16" t="n">
-        <v>7.387502333577323</v>
+        <v>7.387489811553083</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2868138269878973</v>
+        <v>0.2868054253654106</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>82.21321501472565</v>
+        <v>82.21323835740866</v>
       </c>
       <c r="H16" t="n">
-        <v>45.35349562769943</v>
+        <v>45.35348264617492</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
@@ -1061,7 +1061,7 @@
         <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>127.5667106424251</v>
+        <v>127.5667210035836</v>
       </c>
       <c r="L16" t="n">
         <v>-0</v>
@@ -1072,25 +1072,25 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>9.122173309326172</v>
+        <v>9.122176170349121</v>
       </c>
       <c r="C17" t="n">
         <v>92.19288635253906</v>
       </c>
       <c r="D17" t="n">
-        <v>3.86407067622947</v>
+        <v>3.86410325152482</v>
       </c>
       <c r="E17" t="n">
-        <v>1.525242964298013</v>
+        <v>1.525260023975061</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>85.38999174809514</v>
+        <v>85.39004277396113</v>
       </c>
       <c r="H17" t="n">
-        <v>46.04524662882412</v>
+        <v>46.0452411864575</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
@@ -1099,7 +1099,7 @@
         <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>131.4352383769193</v>
+        <v>131.4352839604186</v>
       </c>
       <c r="L17" t="n">
         <v>-0</v>
@@ -1110,34 +1110,34 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>9.537364959716797</v>
+        <v>9.537365913391113</v>
       </c>
       <c r="C18" t="n">
-        <v>89.33024597167969</v>
+        <v>89.33034515380859</v>
       </c>
       <c r="D18" t="n">
-        <v>4.551455407738736</v>
+        <v>4.551433071327127</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.105055600399409</v>
+        <v>-3.104948019291109</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>89.27647914518148</v>
+        <v>89.27651342039557</v>
       </c>
       <c r="H18" t="n">
-        <v>44.6155161196581</v>
+        <v>44.61556038226077</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.105055600399403</v>
+        <v>-3.104948019291114</v>
       </c>
       <c r="K18" t="n">
-        <v>133.8919952648396</v>
+        <v>133.8920738026563</v>
       </c>
       <c r="L18" t="n">
         <v>-0</v>
@@ -1148,37 +1148,37 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>9.240612983703613</v>
+        <v>9.240614891052246</v>
       </c>
       <c r="C19" t="n">
-        <v>87.05577087402344</v>
+        <v>87.05580902099609</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.111467132342971</v>
+        <v>-3.111456821869529</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.546142208516167</v>
+        <v>-2.546207706794612</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>86.49867083966613</v>
+        <v>86.49871325324941</v>
       </c>
       <c r="H19" t="n">
-        <v>43.47954163218815</v>
+        <v>43.47955554537804</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.111467132342972</v>
+        <v>-3.111456821869534</v>
       </c>
       <c r="J19" t="n">
-        <v>-5.57213867767591</v>
+        <v>-5.572097300326567</v>
       </c>
       <c r="K19" t="n">
-        <v>129.9782124718543</v>
+        <v>129.9782687986275</v>
       </c>
       <c r="L19" t="n">
-        <v>-2.923089453737547</v>
+        <v>-2.92310432789132</v>
       </c>
     </row>
     <row r="20">
@@ -1186,34 +1186,34 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>10.20284843444824</v>
+        <v>10.20285224914551</v>
       </c>
       <c r="C20" t="n">
-        <v>86.74878692626953</v>
+        <v>86.74879455566406</v>
       </c>
       <c r="D20" t="n">
-        <v>10.41311277121539</v>
+        <v>10.41313126277996</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3526290614302097</v>
+        <v>-0.3526639621004302</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>95.50587497980297</v>
+        <v>95.50593780492592</v>
       </c>
       <c r="H20" t="n">
-        <v>43.32622013261641</v>
+        <v>43.32621882208805</v>
       </c>
       <c r="I20" t="n">
         <v>-0</v>
       </c>
       <c r="J20" t="n">
-        <v>-5.905118758785449</v>
+        <v>-5.905110483315578</v>
       </c>
       <c r="K20" t="n">
-        <v>138.8320951124194</v>
+        <v>138.832156627014</v>
       </c>
       <c r="L20" t="n">
         <v>-0</v>
@@ -1227,34 +1227,34 @@
         <v>9.582635879516602</v>
       </c>
       <c r="C21" t="n">
-        <v>85.51475524902344</v>
+        <v>85.5147705078125</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.078817684261528</v>
+        <v>-6.078852800018241</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.422534793823615</v>
+        <v>-1.422525873901026</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>89.70024696202199</v>
+        <v>89.7002724304875</v>
       </c>
       <c r="H21" t="n">
-        <v>42.70988957638133</v>
+        <v>42.70989214916087</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.078817684261534</v>
+        <v>-6.078852800018241</v>
       </c>
       <c r="J21" t="n">
-        <v>-7.243651183648729</v>
+        <v>-7.243634632708999</v>
       </c>
       <c r="K21" t="n">
-        <v>132.4101365384033</v>
+        <v>132.4101645796484</v>
       </c>
       <c r="L21" t="n">
-        <v>-4.625701692980916</v>
+        <v>-4.625723754057135</v>
       </c>
     </row>
     <row r="22">
@@ -1265,31 +1265,31 @@
         <v>10.20339775085449</v>
       </c>
       <c r="C22" t="n">
-        <v>87.09354400634766</v>
+        <v>87.09352874755859</v>
       </c>
       <c r="D22" t="n">
         <v>6.477986632725985</v>
       </c>
       <c r="E22" t="n">
-        <v>1.846217945343698</v>
+        <v>1.846181929005897</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.51101696974398</v>
+        <v>95.51104408805327</v>
       </c>
       <c r="H22" t="n">
-        <v>43.49840722217696</v>
+        <v>43.49839445991659</v>
       </c>
       <c r="I22" t="n">
         <v>-0</v>
       </c>
       <c r="J22" t="n">
-        <v>-5.531166826355656</v>
+        <v>-5.531183377295386</v>
       </c>
       <c r="K22" t="n">
-        <v>139.0094241919209</v>
+        <v>139.0094385479699</v>
       </c>
       <c r="L22" t="n">
         <v>-0</v>
@@ -1300,34 +1300,34 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>11.12922382354736</v>
+        <v>11.129225730896</v>
       </c>
       <c r="C23" t="n">
-        <v>87.77095794677734</v>
+        <v>87.77090454101562</v>
       </c>
       <c r="D23" t="n">
-        <v>9.073703635784835</v>
+        <v>9.073722329054256</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7778004077779954</v>
+        <v>0.7777567440405475</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>104.1774035891027</v>
+        <v>104.1774510221838</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83673801092798</v>
+        <v>43.83670615637795</v>
       </c>
       <c r="I23" t="n">
         <v>-0</v>
       </c>
       <c r="J23" t="n">
-        <v>-4.796387856707942</v>
+        <v>-4.796445784997005</v>
       </c>
       <c r="K23" t="n">
-        <v>148.0141416000307</v>
+        <v>148.0141571785618</v>
       </c>
       <c r="L23" t="n">
         <v>-0</v>
@@ -1338,34 +1338,34 @@
         <v>41608</v>
       </c>
       <c r="B24" t="n">
-        <v>11.77176189422607</v>
+        <v>11.77176284790039</v>
       </c>
       <c r="C24" t="n">
-        <v>87.00177001953125</v>
+        <v>87.00175476074219</v>
       </c>
       <c r="D24" t="n">
-        <v>5.773431111334282</v>
+        <v>5.773421552773783</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8763581317097091</v>
+        <v>-0.8763152029657051</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>110.1920142188962</v>
+        <v>110.1920544326289</v>
       </c>
       <c r="H24" t="n">
-        <v>43.45257119269293</v>
+        <v>43.45255843585021</v>
       </c>
       <c r="I24" t="n">
         <v>-0</v>
       </c>
       <c r="J24" t="n">
-        <v>-5.630712453407061</v>
+        <v>-5.630729004346772</v>
       </c>
       <c r="K24" t="n">
-        <v>153.6445854115892</v>
+        <v>153.6446128684792</v>
       </c>
       <c r="L24" t="n">
         <v>-0</v>
@@ -1379,31 +1379,31 @@
         <v>12.37526226043701</v>
       </c>
       <c r="C25" t="n">
-        <v>85.18286895751953</v>
+        <v>85.18292999267578</v>
       </c>
       <c r="D25" t="n">
-        <v>5.126678331023227</v>
+        <v>5.126669814319795</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.090648341526147</v>
+        <v>-2.090561015772885</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>95.03120104084611</v>
+        <v>95.03123604830385</v>
       </c>
       <c r="H25" t="n">
-        <v>63.35413402723075</v>
+        <v>63.3541573655359</v>
       </c>
       <c r="I25" t="n">
         <v>-0</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.603642398409952</v>
+        <v>-7.603576194650962</v>
       </c>
       <c r="K25" t="n">
-        <v>158.3853350680769</v>
+        <v>158.3853934138398</v>
       </c>
       <c r="L25" t="n">
         <v>-0</v>
@@ -1414,37 +1414,37 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>11.47993850708008</v>
+        <v>11.47993755340576</v>
       </c>
       <c r="C26" t="n">
-        <v>87.79231262207031</v>
+        <v>87.79232025146484</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.234786095962031</v>
+        <v>-7.234793802257833</v>
       </c>
       <c r="E26" t="n">
-        <v>3.063343247868433</v>
+        <v>3.063278357545851</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>88.15589692111725</v>
+        <v>88.15592207247215</v>
       </c>
       <c r="H26" t="n">
-        <v>65.29488861419944</v>
+        <v>65.29487155671991</v>
       </c>
       <c r="I26" t="n">
-        <v>-19.99792585150889</v>
+        <v>-19.99793222262646</v>
       </c>
       <c r="J26" t="n">
         <v>-0</v>
       </c>
       <c r="K26" t="n">
-        <v>153.4507855353167</v>
+        <v>153.450793629192</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.115534358429847</v>
+        <v>-3.115564938336362</v>
       </c>
     </row>
     <row r="27">
@@ -1452,34 +1452,34 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>12.52006149291992</v>
+        <v>12.52005577087402</v>
       </c>
       <c r="C27" t="n">
-        <v>88.10613250732422</v>
+        <v>88.10610198974609</v>
       </c>
       <c r="D27" t="n">
-        <v>9.060353286721568</v>
+        <v>9.060312502829682</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3574571347776612</v>
+        <v>0.3574136523359694</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>96.14313262524857</v>
+        <v>96.14312410198913</v>
       </c>
       <c r="H27" t="n">
-        <v>65.52828985219602</v>
+        <v>65.52824434193886</v>
       </c>
       <c r="I27" t="n">
-        <v>-12.74945529695065</v>
+        <v>-12.74949487327081</v>
       </c>
       <c r="J27" t="n">
         <v>-0</v>
       </c>
       <c r="K27" t="n">
-        <v>161.6714224774446</v>
+        <v>161.671368443928</v>
       </c>
       <c r="L27" t="n">
         <v>-0</v>
@@ -1490,34 +1490,34 @@
         <v>41729</v>
       </c>
       <c r="B28" t="n">
-        <v>12.71073150634766</v>
+        <v>12.71073055267334</v>
       </c>
       <c r="C28" t="n">
         <v>87.61179351806641</v>
       </c>
       <c r="D28" t="n">
-        <v>1.522915950017967</v>
+        <v>1.52295473190216</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5610721696548415</v>
+        <v>-0.5610377266914157</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>97.60731172684541</v>
+        <v>97.60734035989894</v>
       </c>
       <c r="H28" t="n">
-        <v>65.1606288545846</v>
+        <v>65.16060616954205</v>
       </c>
       <c r="I28" t="n">
-        <v>-11.42070283519035</v>
+        <v>-11.42070917683475</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.5610721696548323</v>
+        <v>-0.5610377266914144</v>
       </c>
       <c r="K28" t="n">
-        <v>162.76794058143</v>
+        <v>162.767946529441</v>
       </c>
       <c r="L28" t="n">
         <v>-0</v>
@@ -1528,34 +1528,34 @@
         <v>41759</v>
       </c>
       <c r="B29" t="n">
-        <v>12.86764049530029</v>
+        <v>12.86764144897461</v>
       </c>
       <c r="C29" t="n">
-        <v>88.27615356445312</v>
+        <v>88.27616882324219</v>
       </c>
       <c r="D29" t="n">
-        <v>1.234460730086839</v>
+        <v>1.234475828521653</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7582997901415256</v>
+        <v>0.7583172065057431</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>98.81223565980676</v>
+        <v>98.81227938350476</v>
       </c>
       <c r="H29" t="n">
-        <v>65.65474176644382</v>
+        <v>65.65473025798913</v>
       </c>
       <c r="I29" t="n">
-        <v>-10.32722619670385</v>
+        <v>-10.32721924254687</v>
       </c>
       <c r="J29" t="n">
         <v>-0</v>
       </c>
       <c r="K29" t="n">
-        <v>164.4669774262506</v>
+        <v>164.4670096414939</v>
       </c>
       <c r="L29" t="n">
         <v>-0</v>
@@ -1572,28 +1572,28 @@
         <v>89.88752746582031</v>
       </c>
       <c r="D30" t="n">
-        <v>4.408569404831453</v>
+        <v>4.408561666679023</v>
       </c>
       <c r="E30" t="n">
-        <v>1.825378470065164</v>
+        <v>1.825360869256332</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>103.168441649335</v>
+        <v>103.1684796543777</v>
       </c>
       <c r="H30" t="n">
-        <v>66.85318928722536</v>
+        <v>66.85316601293425</v>
       </c>
       <c r="I30" t="n">
-        <v>-6.373939726348028</v>
+        <v>-6.373939404628665</v>
       </c>
       <c r="J30" t="n">
         <v>-0</v>
       </c>
       <c r="K30" t="n">
-        <v>170.0216309365603</v>
+        <v>170.021645667312</v>
       </c>
       <c r="L30" t="n">
         <v>-0</v>
@@ -1604,13 +1604,13 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>13.98553943634033</v>
+        <v>13.98554039001465</v>
       </c>
       <c r="C31" t="n">
         <v>89.69264984130859</v>
       </c>
       <c r="D31" t="n">
-        <v>4.098424891112962</v>
+        <v>4.098431989587392</v>
       </c>
       <c r="E31" t="n">
         <v>-0.2168016297765196</v>
@@ -1619,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>107.3967227416646</v>
+        <v>107.3967696277037</v>
       </c>
       <c r="H31" t="n">
-        <v>66.70825048329307</v>
+        <v>66.70822725946101</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.536745967524252</v>
+        <v>-2.536738986597495</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.2168016297765271</v>
+        <v>-0.2168016297765154</v>
       </c>
       <c r="K31" t="n">
-        <v>174.1049732249577</v>
+        <v>174.1049968871647</v>
       </c>
       <c r="L31" t="n">
         <v>-0</v>
@@ -1642,37 +1642,37 @@
         <v>41851</v>
       </c>
       <c r="B32" t="n">
-        <v>13.58329200744629</v>
+        <v>13.58329582214355</v>
       </c>
       <c r="C32" t="n">
-        <v>89.49494171142578</v>
+        <v>89.49488830566406</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.876166705796379</v>
+        <v>-2.876146052663697</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2204284634611753</v>
+        <v>-0.2204880065361237</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>104.3078139590524</v>
+        <v>104.3078816773682</v>
       </c>
       <c r="H32" t="n">
-        <v>66.56120651175091</v>
+        <v>66.56114361898103</v>
       </c>
       <c r="I32" t="n">
-        <v>-5.339951630392068</v>
+        <v>-5.339924721031782</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.4367522007364355</v>
+        <v>-0.4368116147210134</v>
       </c>
       <c r="K32" t="n">
-        <v>170.8690204708033</v>
+        <v>170.8690252963492</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.858621666121654</v>
+        <v>-1.858632232659404</v>
       </c>
     </row>
     <row r="33">
@@ -1686,19 +1686,19 @@
         <v>91.17765808105469</v>
       </c>
       <c r="D33" t="n">
-        <v>7.870203103057372</v>
+        <v>7.870172809071718</v>
       </c>
       <c r="E33" t="n">
-        <v>1.880236287604697</v>
+        <v>1.880297084279525</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>112.5170507699891</v>
+        <v>112.5170922188591</v>
       </c>
       <c r="H33" t="n">
-        <v>67.81271447005236</v>
+        <v>67.81269086171184</v>
       </c>
       <c r="I33" t="n">
         <v>-0</v>
@@ -1707,7 +1707,7 @@
         <v>-0</v>
       </c>
       <c r="K33" t="n">
-        <v>180.3297652400415</v>
+        <v>180.329783080571</v>
       </c>
       <c r="L33" t="n">
         <v>-0</v>
@@ -1718,37 +1718,37 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>14.2224702835083</v>
+        <v>14.22246742248535</v>
       </c>
       <c r="C34" t="n">
-        <v>90.22071838378906</v>
+        <v>90.22077178955078</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.933694157722211</v>
+        <v>-2.933713683790684</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.04953309550343</v>
+        <v>-1.049474522205052</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>109.2161446251086</v>
+        <v>109.2161628878311</v>
       </c>
       <c r="H34" t="n">
-        <v>67.10099758872991</v>
+        <v>67.1010139482965</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.933694157722207</v>
+        <v>-2.933713683790689</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.049533095503433</v>
+        <v>-1.049474522205062</v>
       </c>
       <c r="K34" t="n">
-        <v>176.3171422138385</v>
+        <v>176.3171768361275</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.225158459482081</v>
+        <v>-2.225148933191249</v>
       </c>
     </row>
     <row r="35">
@@ -1756,25 +1756,25 @@
         <v>41943</v>
       </c>
       <c r="B35" t="n">
-        <v>14.84482860565186</v>
+        <v>14.84482765197754</v>
       </c>
       <c r="C35" t="n">
-        <v>91.60682678222656</v>
+        <v>91.60676574707031</v>
       </c>
       <c r="D35" t="n">
-        <v>4.375880629296947</v>
+        <v>4.375894920372625</v>
       </c>
       <c r="E35" t="n">
-        <v>1.536352650774897</v>
+        <v>1.536224895916982</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>113.9953127418237</v>
+        <v>113.9953474118656</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13190554388076</v>
+        <v>68.13183642998295</v>
       </c>
       <c r="I35" t="n">
         <v>-0</v>
@@ -1783,7 +1783,7 @@
         <v>-0</v>
       </c>
       <c r="K35" t="n">
-        <v>182.1272182857044</v>
+        <v>182.1271838418485</v>
       </c>
       <c r="L35" t="n">
         <v>-0</v>
@@ -1794,25 +1794,25 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>15.66658687591553</v>
+        <v>15.66658592224121</v>
       </c>
       <c r="C36" t="n">
-        <v>92.78724670410156</v>
+        <v>92.78728485107422</v>
       </c>
       <c r="D36" t="n">
-        <v>5.535653472959634</v>
+        <v>5.535653828585896</v>
       </c>
       <c r="E36" t="n">
-        <v>1.288572002042132</v>
+        <v>1.288681130019764</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>120.3056982306276</v>
+        <v>120.3057352252803</v>
       </c>
       <c r="H36" t="n">
-        <v>69.00983420317701</v>
+        <v>69.00983854959208</v>
       </c>
       <c r="I36" t="n">
         <v>-0</v>
@@ -1821,7 +1821,7 @@
         <v>-0</v>
       </c>
       <c r="K36" t="n">
-        <v>189.3155324338046</v>
+        <v>189.3155737748723</v>
       </c>
       <c r="L36" t="n">
         <v>-0</v>
@@ -1832,37 +1832,37 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>15.53505516052246</v>
+        <v>15.53505420684814</v>
       </c>
       <c r="C37" t="n">
-        <v>92.90740203857422</v>
+        <v>92.90738677978516</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8395684167511464</v>
+        <v>-0.8395684678583093</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1294955273927201</v>
+        <v>0.1294379169556548</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>113.0369090619976</v>
+        <v>113.0369097926453</v>
       </c>
       <c r="H37" t="n">
-        <v>75.35793937466504</v>
+        <v>75.35793986176354</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.839568416751145</v>
+        <v>-0.8395684678583059</v>
       </c>
       <c r="J37" t="n">
         <v>-0</v>
       </c>
       <c r="K37" t="n">
-        <v>188.3948484366626</v>
+        <v>188.3948496544089</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.4863224825274029</v>
+        <v>-0.4863435702117057</v>
       </c>
     </row>
     <row r="38">
@@ -1870,37 +1870,37 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>14.57977676391602</v>
+        <v>14.57977867126465</v>
       </c>
       <c r="C38" t="n">
-        <v>96.90452575683594</v>
+        <v>96.90457916259766</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.149179302780916</v>
+        <v>-6.149161263707681</v>
       </c>
       <c r="E38" t="n">
-        <v>4.302266160237855</v>
+        <v>4.302340773276603</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>106.0860668454539</v>
+        <v>106.0860879219838</v>
       </c>
       <c r="H38" t="n">
-        <v>78.60003849943381</v>
+        <v>78.60009523433746</v>
       </c>
       <c r="I38" t="n">
-        <v>-11.8195826085598</v>
+        <v>-11.81959220536686</v>
       </c>
       <c r="J38" t="n">
         <v>-0</v>
       </c>
       <c r="K38" t="n">
-        <v>184.6861053448877</v>
+        <v>184.6861831563212</v>
       </c>
       <c r="L38" t="n">
-        <v>-2.445349850274763</v>
+        <v>-2.445330051956656</v>
       </c>
     </row>
     <row r="39">
@@ -1908,34 +1908,34 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>16.24212455749512</v>
+        <v>16.24212646484375</v>
       </c>
       <c r="C39" t="n">
-        <v>94.50931549072266</v>
+        <v>94.50930023193359</v>
       </c>
       <c r="D39" t="n">
-        <v>11.40173694355391</v>
+        <v>11.40173545196148</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.471721777085645</v>
+        <v>-2.471791272778745</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.1817211209353</v>
+        <v>118.1817430181836</v>
       </c>
       <c r="H39" t="n">
-        <v>76.6572642310456</v>
+        <v>76.65726493993932</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.765483381859934</v>
+        <v>-1.765495388161973</v>
       </c>
       <c r="J39" t="n">
-        <v>-2.471721777085644</v>
+        <v>-2.471791272778744</v>
       </c>
       <c r="K39" t="n">
-        <v>194.8389853519809</v>
+        <v>194.8390079581229</v>
       </c>
       <c r="L39" t="n">
         <v>-0</v>
@@ -1946,37 +1946,37 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>15.68401527404785</v>
+        <v>15.68401622772217</v>
       </c>
       <c r="C40" t="n">
-        <v>95.31834411621094</v>
+        <v>95.31837463378906</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.436183988563979</v>
+        <v>-3.436189456655303</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8560305630059384</v>
+        <v>0.856079137047816</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1207797423684</v>
+        <v>114.1207944249013</v>
       </c>
       <c r="H40" t="n">
-        <v>77.31347384162757</v>
+        <v>77.31351179212162</v>
       </c>
       <c r="I40" t="n">
-        <v>-5.14100211313568</v>
+        <v>-5.141019078431519</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.636849907924035</v>
+        <v>-1.636872625128554</v>
       </c>
       <c r="K40" t="n">
-        <v>191.434253583996</v>
+        <v>191.4343062170229</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.74745919654335</v>
+        <v>-1.747443582668909</v>
       </c>
     </row>
     <row r="41">
@@ -1984,37 +1984,37 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>15.97270774841309</v>
+        <v>15.97270965576172</v>
       </c>
       <c r="C41" t="n">
-        <v>94.71498107910156</v>
+        <v>94.71501922607422</v>
       </c>
       <c r="D41" t="n">
-        <v>1.840679630317177</v>
+        <v>1.840685598942904</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6329978166361827</v>
+        <v>-0.6329896098553056</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>116.2213776890453</v>
+        <v>116.2213994532797</v>
       </c>
       <c r="H41" t="n">
-        <v>76.82408124024448</v>
+        <v>76.82412529546323</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.394951861509162</v>
+        <v>-3.39496347730421</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.259486500381446</v>
+        <v>-2.259501001340226</v>
       </c>
       <c r="K41" t="n">
-        <v>193.0454589292898</v>
+        <v>193.0455247487429</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.9205172257754631</v>
+        <v>-0.9204949399893587</v>
       </c>
     </row>
     <row r="42">
@@ -2022,34 +2022,34 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>16.34145927429199</v>
+        <v>16.34145736694336</v>
       </c>
       <c r="C42" t="n">
-        <v>94.32068634033203</v>
+        <v>94.32066345214844</v>
       </c>
       <c r="D42" t="n">
-        <v>2.308635027242278</v>
+        <v>2.308610868968142</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4162960645478386</v>
+        <v>-0.416360337724786</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>118.9045051235182</v>
+        <v>118.904499313125</v>
       </c>
       <c r="H42" t="n">
-        <v>76.50426561341631</v>
+        <v>76.50426010792893</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.164693882099702</v>
+        <v>-1.164729104170609</v>
       </c>
       <c r="J42" t="n">
-        <v>-2.666376411549209</v>
+        <v>-2.666453673064938</v>
       </c>
       <c r="K42" t="n">
-        <v>195.4087707369345</v>
+        <v>195.408759421054</v>
       </c>
       <c r="L42" t="n">
         <v>-0</v>
@@ -2060,37 +2060,37 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>15.67274284362793</v>
+        <v>15.67274475097656</v>
       </c>
       <c r="C43" t="n">
-        <v>92.78240203857422</v>
+        <v>92.78239440917969</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.092146358777593</v>
+        <v>-4.092123492727861</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.630908723678393</v>
+        <v>-1.630892941872863</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0387587466836</v>
+        <v>114.0387803628222</v>
       </c>
       <c r="H43" t="n">
-        <v>75.25655087154101</v>
+        <v>75.25655752959666</v>
       </c>
       <c r="I43" t="n">
-        <v>-5.209179262590046</v>
+        <v>-5.20919044360006</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.253798969725548</v>
+        <v>-4.253859610185471</v>
       </c>
       <c r="K43" t="n">
-        <v>189.2953096182246</v>
+        <v>189.2953378924188</v>
       </c>
       <c r="L43" t="n">
-        <v>-3.128550011166081</v>
+        <v>-3.128529932203457</v>
       </c>
     </row>
     <row r="44">
@@ -2098,37 +2098,37 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>16.3333625793457</v>
+        <v>16.33336448669434</v>
       </c>
       <c r="C44" t="n">
-        <v>94.19116973876953</v>
+        <v>94.19121551513672</v>
       </c>
       <c r="D44" t="n">
-        <v>4.215086933467815</v>
+        <v>4.215086420498304</v>
       </c>
       <c r="E44" t="n">
-        <v>1.518356573275192</v>
+        <v>1.518414258360257</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>118.845591565704</v>
+        <v>118.8456135079974</v>
       </c>
       <c r="H44" t="n">
-        <v>76.39921365851924</v>
+        <v>76.39926382947715</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.213663763560582</v>
+        <v>-1.213675902107838</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.800030232721091</v>
+        <v>-2.800036562676897</v>
       </c>
       <c r="K44" t="n">
-        <v>195.2448052242232</v>
+        <v>195.2448773374745</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.08390898325235442</v>
+        <v>-0.0838662934378939</v>
       </c>
     </row>
     <row r="45">
@@ -2136,37 +2136,37 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>14.29564094543457</v>
+        <v>14.29563999176025</v>
       </c>
       <c r="C45" t="n">
-        <v>94.26565551757812</v>
+        <v>94.26564788818359</v>
       </c>
       <c r="D45" t="n">
-        <v>-12.47582439936726</v>
+        <v>-12.47584045892122</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07907936488651401</v>
+        <v>0.07902262715244746</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>104.0186242555775</v>
+        <v>104.0186243743135</v>
       </c>
       <c r="H45" t="n">
-        <v>76.45962967145869</v>
+        <v>76.45963653488033</v>
       </c>
       <c r="I45" t="n">
-        <v>-13.53807360298728</v>
+        <v>-13.53810009179371</v>
       </c>
       <c r="J45" t="n">
-        <v>-2.723165113959251</v>
+        <v>-2.723226597977506</v>
       </c>
       <c r="K45" t="n">
-        <v>180.4782539270362</v>
+        <v>180.4782609091939</v>
       </c>
       <c r="L45" t="n">
-        <v>-7.640658478937082</v>
+        <v>-7.640649557417658</v>
       </c>
     </row>
     <row r="46">
@@ -2174,37 +2174,37 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>13.50386810302734</v>
+        <v>13.50386905670166</v>
       </c>
       <c r="C46" t="n">
-        <v>95.75429534912109</v>
+        <v>95.75428009033203</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.538561337888703</v>
+        <v>-5.538548365200546</v>
       </c>
       <c r="E46" t="n">
-        <v>1.579196392757676</v>
+        <v>1.579188427065414</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.25748894835435</v>
+        <v>98.25750255452589</v>
       </c>
       <c r="H46" t="n">
-        <v>77.66707738514624</v>
+        <v>77.66707826641544</v>
       </c>
       <c r="I46" t="n">
-        <v>-18.32682043040602</v>
+        <v>-18.326834235681</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.18697284645005</v>
+        <v>-1.187043050190115</v>
       </c>
       <c r="K46" t="n">
-        <v>175.9245663335006</v>
+        <v>175.9245808209413</v>
       </c>
       <c r="L46" t="n">
-        <v>-9.970997888147073</v>
+        <v>-9.97098526076274</v>
       </c>
     </row>
     <row r="47">
@@ -2212,37 +2212,37 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>15.85975933074951</v>
+        <v>15.85975646972656</v>
       </c>
       <c r="C47" t="n">
         <v>95.14441680908203</v>
       </c>
       <c r="D47" t="n">
-        <v>17.44604738248308</v>
+        <v>17.4460179014823</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6369202946096997</v>
+        <v>-0.6369044607454355</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>115.3995370271223</v>
+        <v>115.3995240397379</v>
       </c>
       <c r="H47" t="n">
-        <v>77.17240000705003</v>
+        <v>77.172413180406</v>
       </c>
       <c r="I47" t="n">
-        <v>-4.078078823914167</v>
+        <v>-4.078119115730593</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.816333070109198</v>
+        <v>-1.81638718079792</v>
       </c>
       <c r="K47" t="n">
-        <v>192.5719370341724</v>
+        <v>192.5719372201439</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.451743282588462</v>
+        <v>-1.451737480609795</v>
       </c>
     </row>
     <row r="48">
@@ -2250,37 +2250,37 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>15.95448398590088</v>
+        <v>15.95447540283203</v>
       </c>
       <c r="C48" t="n">
-        <v>94.73748779296875</v>
+        <v>94.73752593994141</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5972641398644063</v>
+        <v>0.5972281685804548</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.4276961589136929</v>
+        <v>-0.4276560651552463</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>116.0887770793549</v>
+        <v>116.088722503711</v>
       </c>
       <c r="H48" t="n">
-        <v>76.84233661647836</v>
+        <v>76.84238067481333</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.505171586460404</v>
+        <v>-3.505246623257548</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.236260842248959</v>
+        <v>-2.236275356007777</v>
       </c>
       <c r="K48" t="n">
-        <v>192.9311136958332</v>
+        <v>192.9311031785243</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.267935431842388</v>
+        <v>-1.267935096599709</v>
       </c>
     </row>
     <row r="49">
@@ -2288,37 +2288,37 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>15.3493127822876</v>
+        <v>15.34931087493896</v>
       </c>
       <c r="C49" t="n">
-        <v>94.30830383300781</v>
+        <v>94.30825805664062</v>
       </c>
       <c r="D49" t="n">
-        <v>-3.793110476954797</v>
+        <v>-3.793070675239163</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.4530244256622518</v>
+        <v>-0.4531128283558061</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>112.9077741454472</v>
+        <v>112.9077559221148</v>
       </c>
       <c r="H49" t="n">
-        <v>75.2718494302981</v>
+        <v>75.27183728140989</v>
       </c>
       <c r="I49" t="n">
-        <v>-7.165327032733924</v>
+        <v>-7.165360816735124</v>
       </c>
       <c r="J49" t="n">
-        <v>-2.679154460074311</v>
+        <v>-2.679255333848158</v>
       </c>
       <c r="K49" t="n">
-        <v>188.1796235757453</v>
+        <v>188.1795932035247</v>
       </c>
       <c r="L49" t="n">
-        <v>-3.699499840220235</v>
+        <v>-3.699509806493544</v>
       </c>
     </row>
     <row r="50">
@@ -2326,37 +2326,37 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>13.75834465026855</v>
+        <v>13.75834560394287</v>
       </c>
       <c r="C50" t="n">
-        <v>97.45221710205078</v>
+        <v>97.45222473144531</v>
       </c>
       <c r="D50" t="n">
-        <v>-10.36507728121188</v>
+        <v>-10.36505992978281</v>
       </c>
       <c r="E50" t="n">
-        <v>3.333654769796213</v>
+        <v>3.333713016856321</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>101.2047960987754</v>
+        <v>101.2047993554147</v>
       </c>
       <c r="H50" t="n">
-        <v>77.78115302914506</v>
+        <v>77.78118431888716</v>
       </c>
       <c r="I50" t="n">
-        <v>-15.87697209091089</v>
+        <v>-15.87699525221954</v>
       </c>
       <c r="J50" t="n">
-        <v>-1.041838510415802</v>
+        <v>-1.041870131338659</v>
       </c>
       <c r="K50" t="n">
-        <v>178.9859491279205</v>
+        <v>178.9859836743019</v>
       </c>
       <c r="L50" t="n">
-        <v>-8.404342111707436</v>
+        <v>-8.404319128481525</v>
       </c>
     </row>
     <row r="51">
@@ -2364,37 +2364,37 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>13.67306995391846</v>
+        <v>13.67307186126709</v>
       </c>
       <c r="C51" t="n">
-        <v>98.90034484863281</v>
+        <v>98.90031433105469</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6198034612284076</v>
+        <v>-0.6197964866600181</v>
       </c>
       <c r="E51" t="n">
-        <v>1.485987481501394</v>
+        <v>1.485948220884592</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>100.577525269626</v>
+        <v>100.5775355646785</v>
       </c>
       <c r="H51" t="n">
-        <v>78.93697122612559</v>
+        <v>78.93697244345663</v>
       </c>
       <c r="I51" t="n">
-        <v>-16.39836952958157</v>
+        <v>-16.39838668011912</v>
       </c>
       <c r="J51" t="n">
         <v>-0</v>
       </c>
       <c r="K51" t="n">
-        <v>179.5144964957516</v>
+        <v>179.5145080081352</v>
       </c>
       <c r="L51" t="n">
-        <v>-8.133859182083603</v>
+        <v>-8.133847970791773</v>
       </c>
     </row>
     <row r="52">
@@ -2402,37 +2402,37 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>15.54909992218018</v>
+        <v>15.54909801483154</v>
       </c>
       <c r="C52" t="n">
-        <v>98.8349609375</v>
+        <v>98.83490753173828</v>
       </c>
       <c r="D52" t="n">
-        <v>13.72061998208443</v>
+        <v>13.72059016875964</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06611090308419332</v>
+        <v>-0.06613406616430284</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>114.3773852992564</v>
+        <v>114.3773670213466</v>
       </c>
       <c r="H52" t="n">
-        <v>78.88478528158069</v>
+        <v>78.88476821387277</v>
       </c>
       <c r="I52" t="n">
-        <v>-4.927707513908952</v>
+        <v>-4.927751942027099</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.06611090308419457</v>
+        <v>-0.06613406616429927</v>
       </c>
       <c r="K52" t="n">
-        <v>193.2621705808371</v>
+        <v>193.2621352352193</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.098517813710244</v>
+        <v>-1.09853017448887</v>
       </c>
     </row>
     <row r="53">
@@ -2440,37 +2440,37 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>15.64168167114258</v>
+        <v>15.64168071746826</v>
       </c>
       <c r="C53" t="n">
-        <v>98.68060302734375</v>
+        <v>98.6806640625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5954154865924988</v>
+        <v>0.595421692939424</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1561774383194825</v>
+        <v>-0.1560617327321823</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>115.0584059644877</v>
+        <v>115.0583946764046</v>
       </c>
       <c r="H53" t="n">
-        <v>78.76158504470409</v>
+        <v>78.76165927773644</v>
       </c>
       <c r="I53" t="n">
-        <v>-4.36163236098825</v>
+        <v>-4.361671153124743</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.2221850910887929</v>
+        <v>-0.2220925889268961</v>
       </c>
       <c r="K53" t="n">
-        <v>193.8199910091918</v>
+        <v>193.820053954141</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.8130544610413397</v>
+        <v>-0.8130165053091039</v>
       </c>
     </row>
     <row r="54">
@@ -2478,34 +2478,34 @@
         <v>42521</v>
       </c>
       <c r="B54" t="n">
-        <v>16.13870239257812</v>
+        <v>16.13870429992676</v>
       </c>
       <c r="C54" t="n">
-        <v>98.58271789550781</v>
+        <v>98.58271026611328</v>
       </c>
       <c r="D54" t="n">
-        <v>3.177540189636407</v>
+        <v>3.177558674391245</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.09919389305800275</v>
+        <v>-0.09926341428415641</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>118.7144330555643</v>
+        <v>118.71444267706</v>
       </c>
       <c r="H54" t="n">
-        <v>78.68345836226406</v>
+        <v>78.68347776559051</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.322684792546432</v>
+        <v>-1.32270713880804</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.321158590105147</v>
+        <v>-0.3211355465244072</v>
       </c>
       <c r="K54" t="n">
-        <v>197.3978914178284</v>
+        <v>197.3979204426505</v>
       </c>
       <c r="L54" t="n">
         <v>-0</v>
@@ -2516,34 +2516,34 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>16.16490936279297</v>
+        <v>16.16489791870117</v>
       </c>
       <c r="C55" t="n">
-        <v>101.626594543457</v>
+        <v>101.6265563964844</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1623858571609516</v>
+        <v>0.1623031086487758</v>
       </c>
       <c r="E55" t="n">
-        <v>3.087637177112068</v>
+        <v>3.087606459747927</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>118.9072085052554</v>
+        <v>118.9071199079399</v>
       </c>
       <c r="H55" t="n">
-        <v>81.11291807489482</v>
+        <v>81.11291390783521</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.162446788423395</v>
+        <v>-1.162550824963869</v>
       </c>
       <c r="J55" t="n">
         <v>-0</v>
       </c>
       <c r="K55" t="n">
-        <v>200.0201265801502</v>
+        <v>200.0200338157752</v>
       </c>
       <c r="L55" t="n">
         <v>-0</v>
@@ -2554,25 +2554,25 @@
         <v>42582</v>
       </c>
       <c r="B56" t="n">
-        <v>17.36031532287598</v>
+        <v>17.36031723022461</v>
       </c>
       <c r="C56" t="n">
-        <v>101.877067565918</v>
+        <v>101.8770523071289</v>
       </c>
       <c r="D56" t="n">
-        <v>7.395067508602882</v>
+        <v>7.395155339276571</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2464640516453009</v>
+        <v>0.2464866660120357</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>127.7004768468142</v>
+        <v>127.700486134592</v>
       </c>
       <c r="H56" t="n">
-        <v>81.31283225918995</v>
+        <v>81.31284642503184</v>
       </c>
       <c r="I56" t="n">
         <v>-0</v>
@@ -2581,7 +2581,7 @@
         <v>-0</v>
       </c>
       <c r="K56" t="n">
-        <v>209.0133091060041</v>
+        <v>209.0133325596238</v>
       </c>
       <c r="L56" t="n">
         <v>-0</v>
@@ -2592,37 +2592,37 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>17.37739562988281</v>
+        <v>17.37739753723145</v>
       </c>
       <c r="C57" t="n">
-        <v>100.8466339111328</v>
+        <v>100.8467178344727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09838707816747227</v>
+        <v>0.0983870673578302</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.011448090728007</v>
+        <v>-1.011350887489459</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>127.8261176147897</v>
+        <v>127.8261268979015</v>
       </c>
       <c r="H57" t="n">
-        <v>80.4903951697875</v>
+        <v>80.49048823106934</v>
       </c>
       <c r="I57" t="n">
         <v>-0</v>
       </c>
       <c r="J57" t="n">
-        <v>-1.011448090728005</v>
+        <v>-1.011350887489459</v>
       </c>
       <c r="K57" t="n">
-        <v>208.3165127845772</v>
+        <v>208.3166151289708</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.333374139860886</v>
+        <v>-0.3333363580786158</v>
       </c>
     </row>
     <row r="58">
@@ -2633,34 +2633,34 @@
         <v>17.32923698425293</v>
       </c>
       <c r="C58" t="n">
-        <v>101.0860748291016</v>
+        <v>101.086067199707</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.2771338505239918</v>
+        <v>-0.2771447961372298</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2374307487345018</v>
+        <v>0.2373397670980548</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>127.4718681730685</v>
+        <v>127.4718634391002</v>
       </c>
       <c r="H58" t="n">
-        <v>80.68150411769849</v>
+        <v>80.68152416837304</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.2771338505239925</v>
+        <v>-0.2771447961372243</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.7764188307683735</v>
+        <v>-0.7764114582323133</v>
       </c>
       <c r="K58" t="n">
-        <v>208.153372290767</v>
+        <v>208.1533876074732</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.4114268220120809</v>
+        <v>-0.411430668857091</v>
       </c>
     </row>
     <row r="59">
@@ -2671,34 +2671,34 @@
         <v>16.69193458557129</v>
       </c>
       <c r="C59" t="n">
-        <v>99.57515716552734</v>
+        <v>99.57516479492188</v>
       </c>
       <c r="D59" t="n">
         <v>-3.67761373025689</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.494684273900837</v>
+        <v>-1.49466929186215</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>122.7839452469208</v>
+        <v>122.7839406870495</v>
       </c>
       <c r="H59" t="n">
-        <v>79.47557036370461</v>
+        <v>79.47560220242204</v>
       </c>
       <c r="I59" t="n">
-        <v>-3.944555668242827</v>
+        <v>-3.944566211318685</v>
       </c>
       <c r="J59" t="n">
-        <v>-2.259498094506103</v>
+        <v>-2.25947596644976</v>
       </c>
       <c r="K59" t="n">
-        <v>202.2595156106254</v>
+        <v>202.2595428894716</v>
       </c>
       <c r="L59" t="n">
-        <v>-3.231274373993792</v>
+        <v>-3.23127218127371</v>
       </c>
     </row>
     <row r="60">
@@ -2706,37 +2706,37 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>17.89816856384277</v>
+        <v>17.89817237854004</v>
       </c>
       <c r="C60" t="n">
-        <v>95.36587524414062</v>
+        <v>95.36589050292969</v>
       </c>
       <c r="D60" t="n">
-        <v>7.226448031459265</v>
+        <v>7.226470884995173</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.227241052092423</v>
+        <v>-4.227233066258352</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>131.6568632411649</v>
+        <v>131.6568864122489</v>
       </c>
       <c r="H60" t="n">
-        <v>76.11594642690548</v>
+        <v>76.1159832665133</v>
       </c>
       <c r="I60" t="n">
         <v>-0</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.391224715576323</v>
+        <v>-6.391195717530196</v>
       </c>
       <c r="K60" t="n">
-        <v>207.7728096680704</v>
+        <v>207.7728696787622</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.5935026067189877</v>
+        <v>-0.5934850498150597</v>
       </c>
     </row>
     <row r="61">
@@ -2744,34 +2744,34 @@
         <v>42735</v>
       </c>
       <c r="B61" t="n">
-        <v>18.61400985717773</v>
+        <v>18.61401557922363</v>
       </c>
       <c r="C61" t="n">
-        <v>95.25291442871094</v>
+        <v>95.25289154052734</v>
       </c>
       <c r="D61" t="n">
-        <v>3.999522581215809</v>
+        <v>3.99953238545121</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1184499331029043</v>
+        <v>-0.1184899147970264</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>127.7689778132987</v>
+        <v>127.7690038348664</v>
       </c>
       <c r="H61" t="n">
-        <v>85.17931854219914</v>
+        <v>85.17933588991094</v>
       </c>
       <c r="I61" t="n">
         <v>-0</v>
       </c>
       <c r="J61" t="n">
-        <v>-6.502104247279167</v>
+        <v>-6.502112709967006</v>
       </c>
       <c r="K61" t="n">
-        <v>212.9482963554979</v>
+        <v>212.9483397247774</v>
       </c>
       <c r="L61" t="n">
         <v>-0</v>
@@ -2782,25 +2782,25 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>19.2594165802002</v>
+        <v>19.25941467285156</v>
       </c>
       <c r="C62" t="n">
-        <v>95.46188354492188</v>
+        <v>95.46189880371094</v>
       </c>
       <c r="D62" t="n">
-        <v>3.467316972401768</v>
+        <v>3.467274919165231</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2193834356295055</v>
+        <v>0.2194235364442187</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>132.1991332664835</v>
+        <v>132.1991064593</v>
       </c>
       <c r="H62" t="n">
-        <v>85.36618785766282</v>
+        <v>85.36623940104029</v>
       </c>
       <c r="I62" t="n">
         <v>-0</v>
@@ -2809,7 +2809,7 @@
         <v>-0</v>
       </c>
       <c r="K62" t="n">
-        <v>217.5653211241463</v>
+        <v>217.5653458603403</v>
       </c>
       <c r="L62" t="n">
         <v>-0</v>
@@ -2823,22 +2823,22 @@
         <v>20.76779747009277</v>
       </c>
       <c r="C63" t="n">
-        <v>96.15267181396484</v>
+        <v>96.15265655517578</v>
       </c>
       <c r="D63" t="n">
-        <v>7.831913721848061</v>
+        <v>7.831924400939649</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7236273195027731</v>
+        <v>0.7235952355035158</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>142.5528553249454</v>
+        <v>142.5528405359101</v>
       </c>
       <c r="H63" t="n">
-        <v>85.98392091461893</v>
+        <v>85.98394544207474</v>
       </c>
       <c r="I63" t="n">
         <v>-0</v>
@@ -2847,7 +2847,7 @@
         <v>-0</v>
       </c>
       <c r="K63" t="n">
-        <v>228.5367762395643</v>
+        <v>228.5367859779849</v>
       </c>
       <c r="L63" t="n">
         <v>-0</v>
@@ -2858,34 +2858,34 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>20.76302909851074</v>
+        <v>20.76303291320801</v>
       </c>
       <c r="C64" t="n">
-        <v>96.23011779785156</v>
+        <v>96.23012542724609</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02296041064969723</v>
+        <v>-0.02294204232118346</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08054480694676958</v>
+        <v>0.08056862373413409</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>142.5201246039699</v>
+        <v>142.5201360029043</v>
       </c>
       <c r="H64" t="n">
-        <v>86.05317649772488</v>
+        <v>86.05322152354972</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.02296041064969933</v>
+        <v>-0.02294204232117404</v>
       </c>
       <c r="J64" t="n">
         <v>-0</v>
       </c>
       <c r="K64" t="n">
-        <v>228.5733011016948</v>
+        <v>228.5733575264541</v>
       </c>
       <c r="L64" t="n">
         <v>-0</v>
@@ -2896,25 +2896,25 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>21.14726066589355</v>
+        <v>21.14726257324219</v>
       </c>
       <c r="C65" t="n">
-        <v>97.29711151123047</v>
+        <v>97.29714202880859</v>
       </c>
       <c r="D65" t="n">
-        <v>1.850556417176974</v>
+        <v>1.850546890910909</v>
       </c>
       <c r="E65" t="n">
-        <v>1.108793938733732</v>
+        <v>1.108817635667747</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>145.1575399155973</v>
+        <v>145.1575379486281</v>
       </c>
       <c r="H65" t="n">
-        <v>87.00732890281949</v>
+        <v>87.00739481986308</v>
       </c>
       <c r="I65" t="n">
         <v>-0</v>
@@ -2923,7 +2923,7 @@
         <v>-0</v>
       </c>
       <c r="K65" t="n">
-        <v>232.1648688184168</v>
+        <v>232.1649327684912</v>
       </c>
       <c r="L65" t="n">
         <v>-0</v>
@@ -2934,25 +2934,25 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>21.68567276000977</v>
+        <v>21.68566513061523</v>
       </c>
       <c r="C66" t="n">
-        <v>98.10151672363281</v>
+        <v>98.10153961181641</v>
       </c>
       <c r="D66" t="n">
-        <v>2.546013418109361</v>
+        <v>2.545968091654061</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8267513802909798</v>
+        <v>0.8267432796429386</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>148.8532703592459</v>
+        <v>148.8532025474308</v>
       </c>
       <c r="H66" t="n">
-        <v>87.72666319547787</v>
+        <v>87.7267226093287</v>
       </c>
       <c r="I66" t="n">
         <v>-0</v>
@@ -2961,7 +2961,7 @@
         <v>-0</v>
       </c>
       <c r="K66" t="n">
-        <v>236.5799335547237</v>
+        <v>236.5799251567595</v>
       </c>
       <c r="L66" t="n">
         <v>-0</v>
@@ -2972,34 +2972,34 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>21.91109275817871</v>
+        <v>21.91109085083008</v>
       </c>
       <c r="C67" t="n">
-        <v>97.60166931152344</v>
+        <v>97.60163879394531</v>
       </c>
       <c r="D67" t="n">
-        <v>1.039488148067225</v>
+        <v>1.039514900082983</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5095205750156984</v>
+        <v>-0.5095748954085488</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>150.4005824626407</v>
+        <v>150.400553767162</v>
       </c>
       <c r="H67" t="n">
-        <v>87.27967779672218</v>
+        <v>87.27968925434686</v>
       </c>
       <c r="I67" t="n">
         <v>-0</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.5095205750157008</v>
+        <v>-0.5095748954085557</v>
       </c>
       <c r="K67" t="n">
-        <v>237.6802602593629</v>
+        <v>237.6802430215089</v>
       </c>
       <c r="L67" t="n">
         <v>-0</v>
@@ -3016,28 +3016,28 @@
         <v>97.96748352050781</v>
       </c>
       <c r="D68" t="n">
-        <v>3.946326003856471</v>
+        <v>3.946335052328043</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3748032298676929</v>
+        <v>0.3748346145445947</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>156.3358797583155</v>
+        <v>156.335863539371</v>
       </c>
       <c r="H68" t="n">
-        <v>87.60680484812241</v>
+        <v>87.60684374113912</v>
       </c>
       <c r="I68" t="n">
         <v>-0</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.1366270447200129</v>
+        <v>-0.1366503439589797</v>
       </c>
       <c r="K68" t="n">
-        <v>243.9426846064379</v>
+        <v>243.9427072805101</v>
       </c>
       <c r="L68" t="n">
         <v>-0</v>
@@ -3051,22 +3051,22 @@
         <v>22.8468132019043</v>
       </c>
       <c r="C69" t="n">
-        <v>99.39543914794922</v>
+        <v>99.39543151855469</v>
       </c>
       <c r="D69" t="n">
         <v>0.3118984519472567</v>
       </c>
       <c r="E69" t="n">
-        <v>1.457581205648184</v>
+        <v>1.457573417967772</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>156.8234889471198</v>
+        <v>156.8234726775887</v>
       </c>
       <c r="H69" t="n">
-        <v>88.88374517045752</v>
+        <v>88.88377780783053</v>
       </c>
       <c r="I69" t="n">
         <v>-0</v>
@@ -3075,7 +3075,7 @@
         <v>-0</v>
       </c>
       <c r="K69" t="n">
-        <v>245.7072341175773</v>
+        <v>245.7072504854192</v>
       </c>
       <c r="L69" t="n">
         <v>-0</v>
@@ -3089,31 +3089,31 @@
         <v>23.71922302246094</v>
       </c>
       <c r="C70" t="n">
-        <v>97.96263122558594</v>
+        <v>97.96261596679688</v>
       </c>
       <c r="D70" t="n">
         <v>3.818518639106849</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.441522804915185</v>
+        <v>-1.441530591363593</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>162.8118231030632</v>
+        <v>162.811806212277</v>
       </c>
       <c r="H70" t="n">
-        <v>87.60246571396267</v>
+        <v>87.60249095997101</v>
       </c>
       <c r="I70" t="n">
         <v>-0</v>
       </c>
       <c r="J70" t="n">
-        <v>-1.441522804915184</v>
+        <v>-1.441530591363591</v>
       </c>
       <c r="K70" t="n">
-        <v>250.4142888170259</v>
+        <v>250.414297172248</v>
       </c>
       <c r="L70" t="n">
         <v>-0</v>
@@ -3124,34 +3124,34 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>24.79313087463379</v>
+        <v>24.79313659667969</v>
       </c>
       <c r="C71" t="n">
-        <v>97.77748870849609</v>
+        <v>97.77745819091797</v>
       </c>
       <c r="D71" t="n">
-        <v>4.527584445560939</v>
+        <v>4.527608569647534</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1889930014879915</v>
+        <v>-0.1890086070605368</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>170.1832658814117</v>
+        <v>170.183287502742</v>
       </c>
       <c r="H71" t="n">
-        <v>87.43690318463237</v>
+        <v>87.43691471205723</v>
       </c>
       <c r="I71" t="n">
         <v>-0</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.627791429187027</v>
+        <v>-1.627814581533042</v>
       </c>
       <c r="K71" t="n">
-        <v>257.6201690660441</v>
+        <v>257.6202022147993</v>
       </c>
       <c r="L71" t="n">
         <v>-0</v>
@@ -3162,34 +3162,34 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>26.24953079223633</v>
+        <v>26.24953269958496</v>
       </c>
       <c r="C72" t="n">
-        <v>97.50445556640625</v>
+        <v>97.50440979003906</v>
       </c>
       <c r="D72" t="n">
-        <v>5.874207355927785</v>
+        <v>5.874190614108565</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2792392663139798</v>
+        <v>-0.2792549590988069</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>180.1801838043758</v>
+        <v>180.1801782040095</v>
       </c>
       <c r="H72" t="n">
-        <v>87.19274501769193</v>
+        <v>87.19274279164081</v>
       </c>
       <c r="I72" t="n">
         <v>-0</v>
       </c>
       <c r="J72" t="n">
-        <v>-1.902485262657028</v>
+        <v>-1.902523787687991</v>
       </c>
       <c r="K72" t="n">
-        <v>267.3729288220677</v>
+        <v>267.3729209956503</v>
       </c>
       <c r="L72" t="n">
         <v>-0</v>
@@ -3203,31 +3203,31 @@
         <v>26.86992263793945</v>
       </c>
       <c r="C73" t="n">
-        <v>97.68459320068359</v>
+        <v>97.6845703125</v>
       </c>
       <c r="D73" t="n">
-        <v>2.363439752936891</v>
+        <v>2.363432314984792</v>
       </c>
       <c r="E73" t="n">
-        <v>0.184748105336241</v>
+        <v>0.1847716660701604</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>163.0754795144555</v>
+        <v>163.0754790216417</v>
       </c>
       <c r="H73" t="n">
-        <v>108.7169863429704</v>
+        <v>108.7169860144278</v>
       </c>
       <c r="I73" t="n">
         <v>-0</v>
       </c>
       <c r="J73" t="n">
-        <v>-1.721251962797853</v>
+        <v>-1.721267446517731</v>
       </c>
       <c r="K73" t="n">
-        <v>271.7924658574259</v>
+        <v>271.7924650360694</v>
       </c>
       <c r="L73" t="n">
         <v>-0</v>
@@ -3238,34 +3238,34 @@
         <v>43131</v>
       </c>
       <c r="B74" t="n">
-        <v>29.87047958374023</v>
+        <v>29.87047576904297</v>
       </c>
       <c r="C74" t="n">
-        <v>95.58411407470703</v>
+        <v>95.58416748046875</v>
       </c>
       <c r="D74" t="n">
-        <v>11.16697277558996</v>
+        <v>11.16695857868542</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.150266543733592</v>
+        <v>-2.150188945205889</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>181.2860739154976</v>
+        <v>181.2860502159812</v>
       </c>
       <c r="H74" t="n">
-        <v>106.379281358282</v>
+        <v>106.3793653995845</v>
       </c>
       <c r="I74" t="n">
         <v>-0</v>
       </c>
       <c r="J74" t="n">
-        <v>-2.150266543733597</v>
+        <v>-2.150188945205891</v>
       </c>
       <c r="K74" t="n">
-        <v>287.6653552737796</v>
+        <v>287.6654156155657</v>
       </c>
       <c r="L74" t="n">
         <v>-0</v>
@@ -3276,37 +3276,37 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>27.45923233032227</v>
+        <v>27.45923614501953</v>
       </c>
       <c r="C75" t="n">
-        <v>94.69253540039062</v>
+        <v>94.6925048828125</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.072341947701812</v>
+        <v>-8.072317437013798</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9327686749490249</v>
+        <v>-0.9328559542441495</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>166.6520421254751</v>
+        <v>166.6520647735229</v>
       </c>
       <c r="H75" t="n">
-        <v>105.3870087451361</v>
+        <v>105.3869991553673</v>
       </c>
       <c r="I75" t="n">
-        <v>-8.072341947701812</v>
+        <v>-8.072317437013805</v>
       </c>
       <c r="J75" t="n">
-        <v>-3.062978205934766</v>
+        <v>-3.062986733847189</v>
       </c>
       <c r="K75" t="n">
-        <v>272.0390508706112</v>
+        <v>272.0390639288903</v>
       </c>
       <c r="L75" t="n">
-        <v>-5.432112041540894</v>
+        <v>-5.432127339060577</v>
       </c>
     </row>
     <row r="76">
@@ -3314,37 +3314,37 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>25.93704986572266</v>
+        <v>25.93704414367676</v>
       </c>
       <c r="C76" t="n">
-        <v>95.78696441650391</v>
+        <v>95.78694915771484</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.543426874751766</v>
+        <v>-5.543460835194658</v>
       </c>
       <c r="E76" t="n">
-        <v>1.155771161354679</v>
+        <v>1.155787647878559</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>157.4138080349689</v>
+        <v>157.4137728317595</v>
       </c>
       <c r="H76" t="n">
-        <v>106.6050414000267</v>
+        <v>106.605049074075</v>
       </c>
       <c r="I76" t="n">
-        <v>-13.16828444950281</v>
+        <v>-13.16829251659501</v>
       </c>
       <c r="J76" t="n">
-        <v>-1.942608063362856</v>
+        <v>-1.942600708294591</v>
       </c>
       <c r="K76" t="n">
-        <v>264.0188494349957</v>
+        <v>264.0188219058344</v>
       </c>
       <c r="L76" t="n">
-        <v>-8.22014379043971</v>
+        <v>-8.220172612383966</v>
       </c>
     </row>
     <row r="77">
@@ -3352,37 +3352,37 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>25.98868560791016</v>
+        <v>25.98868179321289</v>
       </c>
       <c r="C77" t="n">
-        <v>94.56422424316406</v>
+        <v>94.56423187255859</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1990810152072919</v>
+        <v>0.1990884128896475</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.276520433430883</v>
+        <v>-1.276496741892286</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>157.7271890420814</v>
+        <v>157.7271654137599</v>
       </c>
       <c r="H77" t="n">
-        <v>105.2442062634879</v>
+        <v>105.2442390959517</v>
       </c>
       <c r="I77" t="n">
-        <v>-12.99541898866297</v>
+        <v>-12.99542064828132</v>
       </c>
       <c r="J77" t="n">
-        <v>-3.194330707923439</v>
+        <v>-3.194300215437523</v>
       </c>
       <c r="K77" t="n">
-        <v>262.9713953055693</v>
+        <v>262.9714045097116</v>
       </c>
       <c r="L77" t="n">
-        <v>-8.584266236964231</v>
+        <v>-8.584282213074566</v>
       </c>
     </row>
     <row r="78">
@@ -3393,34 +3393,34 @@
         <v>27.13455390930176</v>
       </c>
       <c r="C78" t="n">
-        <v>95.49675750732422</v>
+        <v>95.49671936035156</v>
       </c>
       <c r="D78" t="n">
-        <v>4.409104479846548</v>
+        <v>4.409119805330475</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9861374865850259</v>
+        <v>0.9860889993265731</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>164.6815456000718</v>
+        <v>164.6815451024044</v>
       </c>
       <c r="H78" t="n">
-        <v>106.2820588339111</v>
+        <v>106.2820409601019</v>
       </c>
       <c r="I78" t="n">
-        <v>-9.159296109620389</v>
+        <v>-9.159284508540217</v>
       </c>
       <c r="J78" t="n">
-        <v>-2.239693713894737</v>
+        <v>-2.239709859140841</v>
       </c>
       <c r="K78" t="n">
-        <v>270.9636044339829</v>
+        <v>270.9635860625062</v>
       </c>
       <c r="L78" t="n">
-        <v>-5.805965346053287</v>
+        <v>-5.805991490954778</v>
       </c>
     </row>
     <row r="79">
@@ -3431,34 +3431,34 @@
         <v>27.41069412231445</v>
       </c>
       <c r="C79" t="n">
-        <v>95.68528747558594</v>
+        <v>95.68527221679688</v>
       </c>
       <c r="D79" t="n">
         <v>1.017669993528192</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1974202823035842</v>
+        <v>0.1974443286725025</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>166.3574602745222</v>
+        <v>166.3574597717902</v>
       </c>
       <c r="H79" t="n">
-        <v>106.491881174499</v>
+        <v>106.491888822375</v>
       </c>
       <c r="I79" t="n">
-        <v>-8.234837524218197</v>
+        <v>-8.23482580507731</v>
       </c>
       <c r="J79" t="n">
-        <v>-2.046695041243865</v>
+        <v>-2.046687710563931</v>
       </c>
       <c r="K79" t="n">
-        <v>272.8493414490213</v>
+        <v>272.8493485941651</v>
       </c>
       <c r="L79" t="n">
-        <v>-5.150433847224145</v>
+        <v>-5.150451259389714</v>
       </c>
     </row>
     <row r="80">
@@ -3466,37 +3466,37 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>29.3539981842041</v>
+        <v>29.35400009155273</v>
       </c>
       <c r="C80" t="n">
-        <v>95.18030548095703</v>
+        <v>95.1802978515625</v>
       </c>
       <c r="D80" t="n">
-        <v>7.089583551653456</v>
+        <v>7.089590510064014</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5277530202934866</v>
+        <v>-0.5277451310273129</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>178.1515114150932</v>
+        <v>178.1515224525546</v>
       </c>
       <c r="H80" t="n">
-        <v>105.9298670552332</v>
+        <v>105.9298830641759</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.729069659187102</v>
+        <v>-1.729050723810358</v>
       </c>
       <c r="J80" t="n">
-        <v>-2.563646566640989</v>
+        <v>-2.563631546851411</v>
       </c>
       <c r="K80" t="n">
-        <v>284.0813784703264</v>
+        <v>284.0814055167304</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.245884058593785</v>
+        <v>-1.245895371595495</v>
       </c>
     </row>
     <row r="81">
@@ -3510,28 +3510,28 @@
         <v>96.14540863037109</v>
       </c>
       <c r="D81" t="n">
-        <v>6.150371258540233</v>
+        <v>6.150364361157767</v>
       </c>
       <c r="E81" t="n">
-        <v>1.013973578396588</v>
+        <v>1.013981675402742</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>189.1084907698221</v>
+        <v>189.1084901983365</v>
       </c>
       <c r="H81" t="n">
-        <v>107.0039679188039</v>
+        <v>107.0039926672221</v>
       </c>
       <c r="I81" t="n">
         <v>-0</v>
       </c>
       <c r="J81" t="n">
-        <v>-1.575667687073617</v>
+        <v>-1.575644625558586</v>
       </c>
       <c r="K81" t="n">
-        <v>296.112458688626</v>
+        <v>296.1124828655586</v>
       </c>
       <c r="L81" t="n">
         <v>-0</v>
@@ -3545,31 +3545,31 @@
         <v>31.43766403198242</v>
       </c>
       <c r="C82" t="n">
-        <v>94.98678588867188</v>
+        <v>94.98683166503906</v>
       </c>
       <c r="D82" t="n">
         <v>0.8931050541585162</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.205073396851963</v>
+        <v>-1.205025785252167</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>190.7974282587303</v>
+        <v>190.7974276821407</v>
       </c>
       <c r="H82" t="n">
-        <v>105.7144915678384</v>
+        <v>105.7145669643328</v>
       </c>
       <c r="I82" t="n">
         <v>-0</v>
       </c>
       <c r="J82" t="n">
-        <v>-2.761753131805863</v>
+        <v>-2.761683486788828</v>
       </c>
       <c r="K82" t="n">
-        <v>296.5119198265687</v>
+        <v>296.5119946464735</v>
       </c>
       <c r="L82" t="n">
         <v>-0</v>
@@ -3580,37 +3580,37 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>27.03215217590332</v>
+        <v>27.03215408325195</v>
       </c>
       <c r="C83" t="n">
-        <v>94.69894409179688</v>
+        <v>94.69895935058594</v>
       </c>
       <c r="D83" t="n">
-        <v>-14.01348348146112</v>
+        <v>-14.01347741437983</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3030335158538344</v>
+        <v>-0.3030654980347935</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>164.0600621666405</v>
+        <v>164.0600732466862</v>
       </c>
       <c r="H83" t="n">
-        <v>105.3941412272734</v>
+        <v>105.394182585467</v>
       </c>
       <c r="I83" t="n">
-        <v>-14.01348348146111</v>
+        <v>-14.01347741437983</v>
       </c>
       <c r="J83" t="n">
-        <v>-3.056417610045184</v>
+        <v>-3.056379275010242</v>
       </c>
       <c r="K83" t="n">
-        <v>269.4542033939139</v>
+        <v>269.4542558321532</v>
       </c>
       <c r="L83" t="n">
-        <v>-9.12533851876209</v>
+        <v>-9.125343764450665</v>
       </c>
     </row>
     <row r="84">
@@ -3618,37 +3618,37 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>27.88268661499023</v>
+        <v>27.8826847076416</v>
       </c>
       <c r="C84" t="n">
-        <v>95.95853424072266</v>
+        <v>95.95854949951172</v>
       </c>
       <c r="D84" t="n">
-        <v>3.146380774835555</v>
+        <v>3.146366441128734</v>
       </c>
       <c r="E84" t="n">
-        <v>1.330099465211343</v>
+        <v>1.33009925089318</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>169.2220164218349</v>
+        <v>169.2220043346111</v>
       </c>
       <c r="H84" t="n">
-        <v>106.7959881361014</v>
+        <v>106.7960298185213</v>
       </c>
       <c r="I84" t="n">
-        <v>-11.308020256771</v>
+        <v>-11.3080263238523</v>
       </c>
       <c r="J84" t="n">
-        <v>-1.76697153911968</v>
+        <v>-1.766932901958431</v>
       </c>
       <c r="K84" t="n">
-        <v>276.0180045579364</v>
+        <v>276.0180341531324</v>
       </c>
       <c r="L84" t="n">
-        <v>-6.9116665800887</v>
+        <v>-6.911680088279619</v>
       </c>
     </row>
     <row r="85">
@@ -3656,37 +3656,37 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>22.94698524475098</v>
+        <v>22.94698143005371</v>
       </c>
       <c r="C85" t="n">
-        <v>98.64944458007812</v>
+        <v>98.64945220947266</v>
       </c>
       <c r="D85" t="n">
-        <v>-17.70167071198131</v>
+        <v>-17.70167876350587</v>
       </c>
       <c r="E85" t="n">
-        <v>2.804242854111361</v>
+        <v>2.804234457477528</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>149.4346195827315</v>
+        <v>149.4346257696255</v>
       </c>
       <c r="H85" t="n">
-        <v>99.62307972182097</v>
+        <v>99.62308384641702</v>
       </c>
       <c r="I85" t="n">
-        <v>-27.00798245885456</v>
+        <v>-27.00799459301716</v>
       </c>
       <c r="J85" t="n">
         <v>-0</v>
       </c>
       <c r="K85" t="n">
-        <v>249.0576993045524</v>
+        <v>249.0577096160425</v>
       </c>
       <c r="L85" t="n">
-        <v>-16.00415273347948</v>
+        <v>-16.004170450848</v>
       </c>
     </row>
     <row r="86">
@@ -3694,37 +3694,37 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>26.55639839172363</v>
+        <v>26.556396484375</v>
       </c>
       <c r="C86" t="n">
-        <v>99.29326629638672</v>
+        <v>99.29325866699219</v>
       </c>
       <c r="D86" t="n">
-        <v>15.72935663868218</v>
+        <v>15.72936756550485</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6526359261820103</v>
+        <v>0.6526204080205877</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>172.9397238385573</v>
+        <v>172.9397473270666</v>
       </c>
       <c r="H86" t="n">
-        <v>100.2732557308545</v>
+        <v>100.2732444226982</v>
       </c>
       <c r="I86" t="n">
-        <v>-9.359510022303375</v>
+        <v>-9.359497437682503</v>
       </c>
       <c r="J86" t="n">
-        <v>-7.766707757588439</v>
+        <v>-7.766717880321846</v>
       </c>
       <c r="K86" t="n">
-        <v>273.2129795694118</v>
+        <v>273.2129917497648</v>
       </c>
       <c r="L86" t="n">
-        <v>-7.857674076234297</v>
+        <v>-7.857693218949772</v>
       </c>
     </row>
     <row r="87">
@@ -3732,37 +3732,37 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>28.20535659790039</v>
+        <v>28.20535850524902</v>
       </c>
       <c r="C87" t="n">
-        <v>98.77145385742188</v>
+        <v>98.77141571044922</v>
       </c>
       <c r="D87" t="n">
-        <v>6.209268974857141</v>
+        <v>6.209283785336694</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5255265119461949</v>
+        <v>-0.5255572871196823</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>183.6780164560685</v>
+        <v>183.6780670162484</v>
       </c>
       <c r="H87" t="n">
-        <v>99.74629318759727</v>
+        <v>99.74625107960338</v>
       </c>
       <c r="I87" t="n">
-        <v>-3.731398199459767</v>
+        <v>-3.731371409132832</v>
       </c>
       <c r="J87" t="n">
-        <v>-8.251418161163119</v>
+        <v>-8.251456615651467</v>
       </c>
       <c r="K87" t="n">
-        <v>283.4243096436658</v>
+        <v>283.4243180958517</v>
       </c>
       <c r="L87" t="n">
-        <v>-4.413856343636356</v>
+        <v>-4.41387761268341</v>
       </c>
     </row>
     <row r="88">
@@ -3770,37 +3770,37 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>29.17691230773926</v>
+        <v>29.17691040039062</v>
       </c>
       <c r="C88" t="n">
         <v>101.3939743041992</v>
       </c>
       <c r="D88" t="n">
-        <v>3.444578714921076</v>
+        <v>3.444564957260843</v>
       </c>
       <c r="E88" t="n">
-        <v>2.655140067658612</v>
+        <v>2.655179714582712</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>190.0049503149034</v>
+        <v>190.0049773468642</v>
       </c>
       <c r="H88" t="n">
-        <v>102.3946969840254</v>
+        <v>102.3946933043258</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.4153504326862317</v>
+        <v>-0.4153359638562229</v>
       </c>
       <c r="J88" t="n">
-        <v>-5.815364803251609</v>
+        <v>-5.81536790328512</v>
       </c>
       <c r="K88" t="n">
-        <v>292.3996472989288</v>
+        <v>292.3996706511899</v>
       </c>
       <c r="L88" t="n">
-        <v>-1.386882702740986</v>
+        <v>-1.386899710477679</v>
       </c>
     </row>
     <row r="89">
@@ -3808,34 +3808,34 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>31.4283390045166</v>
+        <v>31.42833709716797</v>
       </c>
       <c r="C89" t="n">
-        <v>100.8681793212891</v>
+        <v>100.8682174682617</v>
       </c>
       <c r="D89" t="n">
-        <v>7.716466612473405</v>
+        <v>7.716467116913117</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5185663019112718</v>
+        <v>-0.5185286793869426</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>204.6666188679996</v>
+        <v>204.6666489443332</v>
       </c>
       <c r="H89" t="n">
-        <v>101.8637125905221</v>
+        <v>101.8637474533725</v>
       </c>
       <c r="I89" t="n">
         <v>-0</v>
       </c>
       <c r="J89" t="n">
-        <v>-6.303774582960013</v>
+        <v>-6.303742232281666</v>
       </c>
       <c r="K89" t="n">
-        <v>306.5303314585217</v>
+        <v>306.5303963977057</v>
       </c>
       <c r="L89" t="n">
         <v>-0</v>
@@ -3846,37 +3846,37 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>27.41341972351074</v>
+        <v>27.41341781616211</v>
       </c>
       <c r="C90" t="n">
         <v>103.9432601928711</v>
       </c>
       <c r="D90" t="n">
-        <v>-12.77483764073205</v>
+        <v>-12.77483841602185</v>
       </c>
       <c r="E90" t="n">
-        <v>3.04861344010896</v>
+        <v>3.048574468540544</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>178.5207906028368</v>
+        <v>178.5208152502079</v>
       </c>
       <c r="H90" t="n">
-        <v>104.9691434231507</v>
+        <v>104.9691396509347</v>
       </c>
       <c r="I90" t="n">
-        <v>-12.77483764073206</v>
+        <v>-12.77483841602185</v>
       </c>
       <c r="J90" t="n">
-        <v>-3.44733886202135</v>
+        <v>-3.447342039997063</v>
       </c>
       <c r="K90" t="n">
-        <v>283.4899340259875</v>
+        <v>283.4899549011426</v>
       </c>
       <c r="L90" t="n">
-        <v>-7.516514702771559</v>
+        <v>-7.516527485473058</v>
       </c>
     </row>
     <row r="91">
@@ -3887,31 +3887,31 @@
         <v>31.27596664428711</v>
       </c>
       <c r="C91" t="n">
-        <v>105.2083969116211</v>
+        <v>105.2083892822266</v>
       </c>
       <c r="D91" t="n">
-        <v>14.08998570675846</v>
+        <v>14.08999364481929</v>
       </c>
       <c r="E91" t="n">
-        <v>1.217141656325271</v>
+        <v>1.217134316364499</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>203.6743444823687</v>
+        <v>203.6743867736418</v>
       </c>
       <c r="H91" t="n">
-        <v>106.2467665940417</v>
+        <v>106.2467550712188</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.4848247316143459</v>
+        <v>-0.4848186921559816</v>
       </c>
       <c r="J91" t="n">
-        <v>-2.272156203020426</v>
+        <v>-2.272166506603835</v>
       </c>
       <c r="K91" t="n">
-        <v>309.9211110764104</v>
+        <v>309.9211418448605</v>
       </c>
       <c r="L91" t="n">
         <v>-0</v>
@@ -3925,31 +3925,31 @@
         <v>32.06276321411133</v>
       </c>
       <c r="C92" t="n">
-        <v>105.2486724853516</v>
+        <v>105.2486419677734</v>
       </c>
       <c r="D92" t="n">
         <v>2.515658680586097</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03828171031281524</v>
+        <v>0.03825995799526805</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>208.7980958094662</v>
+        <v>208.7981391646434</v>
       </c>
       <c r="H92" t="n">
-        <v>106.2874396734459</v>
+        <v>106.2874050350803</v>
       </c>
       <c r="I92" t="n">
         <v>-0</v>
       </c>
       <c r="J92" t="n">
-        <v>-2.234744312963111</v>
+        <v>-2.234775878559577</v>
       </c>
       <c r="K92" t="n">
-        <v>315.0855354829122</v>
+        <v>315.0855441997238</v>
       </c>
       <c r="L92" t="n">
         <v>-0</v>
@@ -3960,37 +3960,37 @@
         <v>43708</v>
       </c>
       <c r="B93" t="n">
-        <v>30.76715087890625</v>
+        <v>30.76715278625488</v>
       </c>
       <c r="C93" t="n">
-        <v>109.4076995849609</v>
+        <v>109.4076919555664</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.040862999090667</v>
+        <v>-4.040857050293867</v>
       </c>
       <c r="E93" t="n">
-        <v>3.951619532482198</v>
+        <v>3.951642425055191</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>200.3608508130957</v>
+        <v>200.3609048373265</v>
       </c>
       <c r="H93" t="n">
-        <v>110.4875149001571</v>
+        <v>110.4875032249368</v>
       </c>
       <c r="I93" t="n">
-        <v>-4.040862999090663</v>
+        <v>-4.040857050293871</v>
       </c>
       <c r="J93" t="n">
         <v>-0</v>
       </c>
       <c r="K93" t="n">
-        <v>310.8483657132527</v>
+        <v>310.8484080622633</v>
       </c>
       <c r="L93" t="n">
-        <v>-1.34476810024471</v>
+        <v>-1.344757389051979</v>
       </c>
     </row>
     <row r="94">
@@ -3998,34 +3998,34 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>31.88157844543457</v>
+        <v>31.88158226013184</v>
       </c>
       <c r="C94" t="n">
         <v>108.1100311279297</v>
       </c>
       <c r="D94" t="n">
-        <v>3.622134434593893</v>
+        <v>3.622140409348562</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.186085131077586</v>
+        <v>-1.186078240425492</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>207.6181901838421</v>
+        <v>207.6182581359757</v>
       </c>
       <c r="H94" t="n">
-        <v>109.1770389142292</v>
+        <v>109.1770349907964</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.5650940546415898</v>
+        <v>-0.5650821570480201</v>
       </c>
       <c r="J94" t="n">
-        <v>-1.186085131077585</v>
+        <v>-1.18607824042549</v>
       </c>
       <c r="K94" t="n">
-        <v>316.7952290980713</v>
+        <v>316.7952931267722</v>
       </c>
       <c r="L94" t="n">
         <v>-0</v>
@@ -4036,34 +4036,34 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>33.15734100341797</v>
+        <v>33.1573371887207</v>
       </c>
       <c r="C95" t="n">
-        <v>108.3131484985352</v>
+        <v>108.3131561279297</v>
       </c>
       <c r="D95" t="n">
-        <v>4.001566485068708</v>
+        <v>4.001542075859299</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1878802258091339</v>
+        <v>0.1878872828735334</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>215.9261700991449</v>
+        <v>215.9261900924529</v>
       </c>
       <c r="H95" t="n">
-        <v>109.3821609814729</v>
+        <v>109.3821647553625</v>
       </c>
       <c r="I95" t="n">
         <v>-0</v>
       </c>
       <c r="J95" t="n">
-        <v>-1.00043332469101</v>
+        <v>-1.000419447730646</v>
       </c>
       <c r="K95" t="n">
-        <v>325.3083310806179</v>
+        <v>325.3083548478155</v>
       </c>
       <c r="L95" t="n">
         <v>-0</v>
@@ -4074,34 +4074,34 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>35.50037384033203</v>
+        <v>35.5003662109375</v>
       </c>
       <c r="C96" t="n">
-        <v>107.5688323974609</v>
+        <v>107.5688247680664</v>
       </c>
       <c r="D96" t="n">
-        <v>7.066407516430639</v>
+        <v>7.066396824573218</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.6871890545073422</v>
+        <v>-0.6872030937628115</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>231.1843932129717</v>
+        <v>231.184391532568</v>
       </c>
       <c r="H96" t="n">
-        <v>108.6304987436247</v>
+        <v>108.6304871351389</v>
       </c>
       <c r="I96" t="n">
         <v>-0</v>
       </c>
       <c r="J96" t="n">
-        <v>-1.680747510893428</v>
+        <v>-1.680747628098049</v>
       </c>
       <c r="K96" t="n">
-        <v>339.8148919565964</v>
+        <v>339.8148786677069</v>
       </c>
       <c r="L96" t="n">
         <v>-0</v>
@@ -4115,31 +4115,31 @@
         <v>37.50580978393555</v>
       </c>
       <c r="C97" t="n">
-        <v>106.5705184936523</v>
+        <v>106.5705490112305</v>
       </c>
       <c r="D97" t="n">
-        <v>5.649055845505324</v>
+        <v>5.649078550576125</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.9280698521667352</v>
+        <v>-0.9280344551391706</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>211.1198763157151</v>
+        <v>211.1199229155921</v>
       </c>
       <c r="H97" t="n">
-        <v>140.7465842104767</v>
+        <v>140.7466152770614</v>
       </c>
       <c r="I97" t="n">
         <v>-0</v>
       </c>
       <c r="J97" t="n">
-        <v>-2.593218852120525</v>
+        <v>-2.593184166144535</v>
       </c>
       <c r="K97" t="n">
-        <v>351.8664605261918</v>
+        <v>351.8665381926535</v>
       </c>
       <c r="L97" t="n">
         <v>-0</v>
@@ -4153,31 +4153,31 @@
         <v>37.34170532226562</v>
       </c>
       <c r="C98" t="n">
-        <v>110.2640762329102</v>
+        <v>110.2640533447266</v>
       </c>
       <c r="D98" t="n">
         <v>-0.4375441101399979</v>
       </c>
       <c r="E98" t="n">
-        <v>3.465834446022531</v>
+        <v>3.465783340486372</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>210.1961337315608</v>
+        <v>210.1961801275428</v>
       </c>
       <c r="H98" t="n">
-        <v>145.6246278076435</v>
+        <v>145.6245880216322</v>
       </c>
       <c r="I98" t="n">
-        <v>-9.078579738761208</v>
+        <v>-9.07855900906201</v>
       </c>
       <c r="J98" t="n">
         <v>-0</v>
       </c>
       <c r="K98" t="n">
-        <v>355.8207615392043</v>
+        <v>355.820768149175</v>
       </c>
       <c r="L98" t="n">
         <v>-0</v>
@@ -4191,34 +4191,34 @@
         <v>31.56813812255859</v>
       </c>
       <c r="C99" t="n">
-        <v>113.5297546386719</v>
+        <v>113.5297393798828</v>
       </c>
       <c r="D99" t="n">
         <v>-15.46144491763327</v>
       </c>
       <c r="E99" t="n">
-        <v>2.961688445893884</v>
+        <v>2.961695979873413</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>177.6967742956608</v>
+        <v>177.6968135181536</v>
       </c>
       <c r="H99" t="n">
-        <v>149.9375755837985</v>
+        <v>149.9375455907761</v>
       </c>
       <c r="I99" t="n">
-        <v>-23.1363450507825</v>
+        <v>-23.13632752619433</v>
       </c>
       <c r="J99" t="n">
         <v>-0</v>
       </c>
       <c r="K99" t="n">
-        <v>327.6343498794593</v>
+        <v>327.6343591089297</v>
       </c>
       <c r="L99" t="n">
-        <v>-7.921519682498772</v>
+        <v>-7.92151879915801</v>
       </c>
     </row>
     <row r="100">
@@ -4229,34 +4229,34 @@
         <v>22.16192245483398</v>
       </c>
       <c r="C100" t="n">
-        <v>117.7560882568359</v>
+        <v>117.7560653686523</v>
       </c>
       <c r="D100" t="n">
         <v>-29.79654875813828</v>
       </c>
       <c r="E100" t="n">
-        <v>3.722666037300182</v>
+        <v>3.722659817466667</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>124.7492683010153</v>
+        <v>124.7492958365589</v>
       </c>
       <c r="H100" t="n">
-        <v>155.5192507872079</v>
+        <v>155.5192103517797</v>
       </c>
       <c r="I100" t="n">
-        <v>-46.03906147501325</v>
+        <v>-46.03904917214754</v>
       </c>
       <c r="J100" t="n">
         <v>-0</v>
       </c>
       <c r="K100" t="n">
-        <v>280.2685190882232</v>
+        <v>280.2685061883386</v>
       </c>
       <c r="L100" t="n">
-        <v>-21.2332304962078</v>
+        <v>-21.23323558482166</v>
       </c>
     </row>
     <row r="101">
@@ -4267,34 +4267,34 @@
         <v>27.74290466308594</v>
       </c>
       <c r="C101" t="n">
-        <v>118.0802154541016</v>
+        <v>118.0802307128906</v>
       </c>
       <c r="D101" t="n">
         <v>25.18275307399889</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2752530268827158</v>
+        <v>0.2752854752945622</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>156.1645684988804</v>
+        <v>156.1646029686319</v>
       </c>
       <c r="H101" t="n">
-        <v>155.947322232385</v>
+        <v>155.947332149171</v>
       </c>
       <c r="I101" t="n">
-        <v>-32.4502115698535</v>
+        <v>-32.4501961687875</v>
       </c>
       <c r="J101" t="n">
         <v>-0</v>
       </c>
       <c r="K101" t="n">
-        <v>312.1118907312654</v>
+        <v>312.1119351178029</v>
       </c>
       <c r="L101" t="n">
-        <v>-12.28395741127184</v>
+        <v>-12.28394656633633</v>
       </c>
     </row>
     <row r="102">
@@ -4311,28 +4311,28 @@
         <v>9.155435525715848</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3274857352938421</v>
+        <v>0.327472770583892</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>170.4621148818077</v>
+        <v>170.4621525074151</v>
       </c>
       <c r="H102" t="n">
-        <v>156.4580274672687</v>
+        <v>156.4580171984115</v>
       </c>
       <c r="I102" t="n">
-        <v>-26.26573424237397</v>
+        <v>-26.2657174312733</v>
       </c>
       <c r="J102" t="n">
         <v>-0</v>
       </c>
       <c r="K102" t="n">
-        <v>326.9201423490765</v>
+        <v>326.9201697058267</v>
       </c>
       <c r="L102" t="n">
-        <v>-8.122240834152004</v>
+        <v>-8.122234852585116</v>
       </c>
     </row>
     <row r="103">
@@ -4343,34 +4343,34 @@
         <v>31.17774391174316</v>
       </c>
       <c r="C103" t="n">
-        <v>118.5174789428711</v>
+        <v>118.5174713134766</v>
       </c>
       <c r="D103" t="n">
         <v>2.954987275582766</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04268502182713796</v>
+        <v>0.04267858172124495</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>175.4992486862544</v>
+        <v>175.4992874236937</v>
       </c>
       <c r="H103" t="n">
-        <v>156.5248116104435</v>
+        <v>156.524791261141</v>
       </c>
       <c r="I103" t="n">
-        <v>-24.08689607149175</v>
+        <v>-24.08687876362519</v>
       </c>
       <c r="J103" t="n">
         <v>-0</v>
       </c>
       <c r="K103" t="n">
-        <v>332.0240602966978</v>
+        <v>332.0240786848347</v>
       </c>
       <c r="L103" t="n">
-        <v>-6.687833823851955</v>
+        <v>-6.687830389473991</v>
       </c>
     </row>
     <row r="104">
@@ -4378,37 +4378,37 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>34.82196044921875</v>
+        <v>34.82195663452148</v>
       </c>
       <c r="C104" t="n">
-        <v>119.5297622680664</v>
+        <v>119.5297546386719</v>
       </c>
       <c r="D104" t="n">
-        <v>11.68851905317942</v>
+        <v>11.68850681785771</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8541215474919595</v>
+        <v>0.8541216024748222</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>196.012511807134</v>
+        <v>196.0125335995039</v>
       </c>
       <c r="H104" t="n">
-        <v>157.8617237535795</v>
+        <v>157.861703316531</v>
       </c>
       <c r="I104" t="n">
-        <v>-15.21377845494817</v>
+        <v>-15.21376841226293</v>
       </c>
       <c r="J104" t="n">
         <v>-0</v>
       </c>
       <c r="K104" t="n">
-        <v>353.8742355607134</v>
+        <v>353.8742369160349</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.5470523895431668</v>
+        <v>-0.5470538561493076</v>
       </c>
     </row>
     <row r="105">
@@ -4419,31 +4419,31 @@
         <v>39.79723739624023</v>
       </c>
       <c r="C105" t="n">
-        <v>118.3705139160156</v>
+        <v>118.3705062866211</v>
       </c>
       <c r="D105" t="n">
-        <v>14.28775658474768</v>
+        <v>14.2877691048136</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.9698407576942736</v>
+        <v>-0.9698408195976671</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>224.0183023697871</v>
+        <v>224.0183518166962</v>
       </c>
       <c r="H105" t="n">
-        <v>156.3307164158185</v>
+        <v>156.3306960792551</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.099729503186267</v>
+        <v>-3.099707410334525</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.9698407576942812</v>
+        <v>-0.9698408195976612</v>
       </c>
       <c r="K105" t="n">
-        <v>380.3490187856056</v>
+        <v>380.3490478959513</v>
       </c>
       <c r="L105" t="n">
         <v>-0</v>
@@ -4454,37 +4454,37 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>36.62662124633789</v>
+        <v>36.62661743164062</v>
       </c>
       <c r="C106" t="n">
         <v>118.7585144042969</v>
       </c>
       <c r="D106" t="n">
-        <v>-7.966925237383138</v>
+        <v>-7.966934822714977</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3277847459178362</v>
+        <v>0.3277912123956561</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>206.1709317019312</v>
+        <v>206.1709557365396</v>
       </c>
       <c r="H106" t="n">
-        <v>156.8431446574136</v>
+        <v>156.8431343632799</v>
       </c>
       <c r="I106" t="n">
-        <v>-10.81970160848945</v>
+        <v>-10.81969056397329</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.645235001839856</v>
+        <v>-0.6452286601828666</v>
       </c>
       <c r="K106" t="n">
-        <v>363.0140763593449</v>
+        <v>363.0140900998196</v>
       </c>
       <c r="L106" t="n">
-        <v>-4.557640895619627</v>
+        <v>-4.557644587787664</v>
       </c>
     </row>
     <row r="107">
@@ -4492,37 +4492,37 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>34.65744018554688</v>
+        <v>34.65744400024414</v>
       </c>
       <c r="C107" t="n">
-        <v>117.1186981201172</v>
+        <v>117.1186828613281</v>
       </c>
       <c r="D107" t="n">
-        <v>-5.376365588152376</v>
+        <v>-5.376345317914543</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.38079891989652</v>
+        <v>-1.38081176848186</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>195.0864286771355</v>
+        <v>195.0864932108985</v>
       </c>
       <c r="H107" t="n">
-        <v>154.6774562100523</v>
+        <v>154.6774259059359</v>
       </c>
       <c r="I107" t="n">
-        <v>-15.61436048262223</v>
+        <v>-15.61433195483882</v>
       </c>
       <c r="J107" t="n">
-        <v>-2.017124523800177</v>
+        <v>-2.017131035391302</v>
       </c>
       <c r="K107" t="n">
-        <v>349.7638848871878</v>
+        <v>349.7639191168344</v>
       </c>
       <c r="L107" t="n">
-        <v>-8.041333719243259</v>
+        <v>-8.041331757844645</v>
       </c>
     </row>
     <row r="108">
@@ -4530,34 +4530,34 @@
         <v>44165</v>
       </c>
       <c r="B108" t="n">
-        <v>42.45935821533203</v>
+        <v>42.4593620300293</v>
       </c>
       <c r="C108" t="n">
-        <v>117.5149765014648</v>
+        <v>117.5149993896484</v>
       </c>
       <c r="D108" t="n">
-        <v>22.5115241864827</v>
+        <v>22.51152170867014</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3383562041828991</v>
+        <v>0.3383888194760099</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>239.0033572533341</v>
+        <v>239.0034314807532</v>
       </c>
       <c r="H108" t="n">
-        <v>155.2008169796113</v>
+        <v>155.2008370214549</v>
       </c>
       <c r="I108" t="n">
         <v>-0</v>
       </c>
       <c r="J108" t="n">
-        <v>-1.685593385589656</v>
+        <v>-1.685567961813242</v>
       </c>
       <c r="K108" t="n">
-        <v>394.2041742329454</v>
+        <v>394.2042685022082</v>
       </c>
       <c r="L108" t="n">
         <v>-0</v>
@@ -4571,31 +4571,31 @@
         <v>45.58361434936523</v>
       </c>
       <c r="C109" t="n">
-        <v>117.234748840332</v>
+        <v>117.2347640991211</v>
       </c>
       <c r="D109" t="n">
-        <v>7.358227409346574</v>
+        <v>7.358217763908748</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.2384612323258373</v>
+        <v>-0.2384676781541417</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>246.8522945969217</v>
+        <v>246.8523345727533</v>
       </c>
       <c r="H109" t="n">
-        <v>164.5681963979478</v>
+        <v>164.5682230485022</v>
       </c>
       <c r="I109" t="n">
         <v>-0</v>
       </c>
       <c r="J109" t="n">
-        <v>-1.920035131156219</v>
+        <v>-1.920016105185145</v>
       </c>
       <c r="K109" t="n">
-        <v>411.4204909948695</v>
+        <v>411.4205576212555</v>
       </c>
       <c r="L109" t="n">
         <v>-0</v>
@@ -4609,34 +4609,34 @@
         <v>44.53571701049805</v>
       </c>
       <c r="C110" t="n">
-        <v>115.9544067382812</v>
+        <v>115.9544219970703</v>
       </c>
       <c r="D110" t="n">
         <v>-2.298846534712706</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.092118262473996</v>
+        <v>-1.092118120328422</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>241.1775391767215</v>
+        <v>241.1775782335702</v>
       </c>
       <c r="H110" t="n">
-        <v>162.7709170708617</v>
+        <v>162.770943664287</v>
       </c>
       <c r="I110" t="n">
-        <v>-2.298846534712709</v>
+        <v>-2.298846534712703</v>
       </c>
       <c r="J110" t="n">
-        <v>-1.092118262474004</v>
+        <v>-1.092118120328422</v>
       </c>
       <c r="K110" t="n">
-        <v>403.9484562475832</v>
+        <v>403.9485218978572</v>
       </c>
       <c r="L110" t="n">
-        <v>-1.816155225817227</v>
+        <v>-1.816155168958991</v>
       </c>
     </row>
     <row r="111">
@@ -4644,34 +4644,34 @@
         <v>44255</v>
       </c>
       <c r="B111" t="n">
-        <v>46.89099502563477</v>
+        <v>46.8909912109375</v>
       </c>
       <c r="C111" t="n">
-        <v>113.2140197753906</v>
+        <v>113.2140350341797</v>
       </c>
       <c r="D111" t="n">
-        <v>5.288514866801242</v>
+        <v>5.288506301322737</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.363331450676043</v>
+        <v>-2.363331139678193</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>253.9322491914678</v>
+        <v>253.9322696558301</v>
       </c>
       <c r="H111" t="n">
-        <v>158.9241007951722</v>
+        <v>158.9241272663209</v>
       </c>
       <c r="I111" t="n">
         <v>-0</v>
       </c>
       <c r="J111" t="n">
-        <v>-3.429639338774419</v>
+        <v>-3.429638892386822</v>
       </c>
       <c r="K111" t="n">
-        <v>412.8563499866401</v>
+        <v>412.8563969221509</v>
       </c>
       <c r="L111" t="n">
         <v>-0</v>
@@ -4685,31 +4685,31 @@
         <v>51.08823013305664</v>
       </c>
       <c r="C112" t="n">
-        <v>110.5130996704102</v>
+        <v>110.5131149291992</v>
       </c>
       <c r="D112" t="n">
-        <v>8.951047221598296</v>
+        <v>8.951056085033482</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.385676359110755</v>
+        <v>-2.385676037573481</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>276.6618447274628</v>
+        <v>276.6618895307219</v>
       </c>
       <c r="H112" t="n">
-        <v>155.1326860935725</v>
+        <v>155.1327124442055</v>
       </c>
       <c r="I112" t="n">
         <v>-0</v>
       </c>
       <c r="J112" t="n">
-        <v>-5.733495602977266</v>
+        <v>-5.73349485672933</v>
       </c>
       <c r="K112" t="n">
-        <v>431.7945308210352</v>
+        <v>431.7946019749273</v>
       </c>
       <c r="L112" t="n">
         <v>-0</v>
@@ -4720,34 +4720,34 @@
         <v>44316</v>
       </c>
       <c r="B113" t="n">
-        <v>56.50614929199219</v>
+        <v>56.50615310668945</v>
       </c>
       <c r="C113" t="n">
-        <v>111.6196136474609</v>
+        <v>111.6196060180664</v>
       </c>
       <c r="D113" t="n">
-        <v>10.60502418037357</v>
+        <v>10.60503164725439</v>
       </c>
       <c r="E113" t="n">
-        <v>1.001251417570237</v>
+        <v>1.001230568495037</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>306.0019002586778</v>
+        <v>306.001970471347</v>
       </c>
       <c r="H113" t="n">
-        <v>156.6859543121991</v>
+        <v>156.6859485829324</v>
       </c>
       <c r="I113" t="n">
         <v>-0</v>
       </c>
       <c r="J113" t="n">
-        <v>-4.789650891408172</v>
+        <v>-4.78966979138295</v>
       </c>
       <c r="K113" t="n">
-        <v>462.6878545708769</v>
+        <v>462.6879190542793</v>
       </c>
       <c r="L113" t="n">
         <v>-0</v>
@@ -4764,28 +4764,28 @@
         <v>112.0938415527344</v>
       </c>
       <c r="D114" t="n">
-        <v>1.086962392123314</v>
+        <v>1.086955567801762</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4248607299172757</v>
+        <v>0.4248675941314506</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>309.3280258336723</v>
+        <v>309.3280759269684</v>
       </c>
       <c r="H114" t="n">
-        <v>157.3516514013678</v>
+        <v>157.3516564030187</v>
       </c>
       <c r="I114" t="n">
         <v>-0</v>
       </c>
       <c r="J114" t="n">
-        <v>-4.38513950722863</v>
+        <v>-4.385151952060993</v>
       </c>
       <c r="K114" t="n">
-        <v>466.6796772350401</v>
+        <v>466.6797323299871</v>
       </c>
       <c r="L114" t="n">
         <v>-0</v>
@@ -4799,31 +4799,31 @@
         <v>59.61484909057617</v>
       </c>
       <c r="C115" t="n">
-        <v>113.2400665283203</v>
+        <v>113.2400741577148</v>
       </c>
       <c r="D115" t="n">
         <v>4.367093709347625</v>
       </c>
       <c r="E115" t="n">
-        <v>1.022558384750072</v>
+        <v>1.022565191006697</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>322.8366705911038</v>
+        <v>322.8367228720211</v>
       </c>
       <c r="H115" t="n">
-        <v>158.9606639063152</v>
+        <v>158.9606796688684</v>
       </c>
       <c r="I115" t="n">
         <v>-0</v>
       </c>
       <c r="J115" t="n">
-        <v>-3.407421734192706</v>
+        <v>-3.407427798488814</v>
       </c>
       <c r="K115" t="n">
-        <v>481.797334497419</v>
+        <v>481.7974025408895</v>
       </c>
       <c r="L115" t="n">
         <v>-0</v>
@@ -4837,31 +4837,31 @@
         <v>62.39727783203125</v>
       </c>
       <c r="C116" t="n">
-        <v>115.4938201904297</v>
+        <v>115.4938278198242</v>
       </c>
       <c r="D116" t="n">
         <v>4.667341751092202</v>
       </c>
       <c r="E116" t="n">
-        <v>1.990244028641341</v>
+        <v>1.99024389455138</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>337.9045613054384</v>
+        <v>337.9046160264847</v>
       </c>
       <c r="H116" t="n">
-        <v>162.1243690275992</v>
+        <v>162.1243848907155</v>
       </c>
       <c r="I116" t="n">
         <v>-0</v>
       </c>
       <c r="J116" t="n">
-        <v>-1.484993713146764</v>
+        <v>-1.4850000276581</v>
       </c>
       <c r="K116" t="n">
-        <v>500.0289303330376</v>
+        <v>500.0290009172002</v>
       </c>
       <c r="L116" t="n">
         <v>-0</v>
@@ -4875,31 +4875,31 @@
         <v>66.09384918212891</v>
       </c>
       <c r="C117" t="n">
-        <v>115.0382690429688</v>
+        <v>115.0382766723633</v>
       </c>
       <c r="D117" t="n">
         <v>5.924250990641844</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.3944376822152096</v>
+        <v>-0.3944376561590968</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>357.9228756259998</v>
+        <v>357.9229335888583</v>
       </c>
       <c r="H117" t="n">
-        <v>161.4848894241007</v>
+        <v>161.4849052668902</v>
       </c>
       <c r="I117" t="n">
         <v>-0</v>
       </c>
       <c r="J117" t="n">
-        <v>-1.873574020578799</v>
+        <v>-1.873580284514134</v>
       </c>
       <c r="K117" t="n">
-        <v>519.4077650501006</v>
+        <v>519.4078388557485</v>
       </c>
       <c r="L117" t="n">
         <v>-0</v>
@@ -4913,34 +4913,34 @@
         <v>59.87318420410156</v>
       </c>
       <c r="C118" t="n">
-        <v>113.2010345458984</v>
+        <v>113.2010192871094</v>
       </c>
       <c r="D118" t="n">
         <v>-9.411866694108884</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.59706375309252</v>
+        <v>-1.597083543320577</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>324.2356517043596</v>
+        <v>324.2357042118311</v>
       </c>
       <c r="H118" t="n">
-        <v>158.9058727883869</v>
+        <v>158.9058564199259</v>
       </c>
       <c r="I118" t="n">
-        <v>-9.41186669410888</v>
+        <v>-9.411866694108886</v>
       </c>
       <c r="J118" t="n">
-        <v>-3.4407156021013</v>
+        <v>-3.440741185439836</v>
       </c>
       <c r="K118" t="n">
-        <v>483.1415244927464</v>
+        <v>483.141560631757</v>
       </c>
       <c r="L118" t="n">
-        <v>-6.98222918439735</v>
+        <v>-6.982235444094544</v>
       </c>
     </row>
     <row r="119">
@@ -4951,31 +4951,31 @@
         <v>68.42292022705078</v>
       </c>
       <c r="C119" t="n">
-        <v>112.6996231079102</v>
+        <v>112.6996307373047</v>
       </c>
       <c r="D119" t="n">
         <v>14.27974165162829</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.4429389183585375</v>
+        <v>-0.4429187590025419</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>370.5356651102154</v>
+        <v>370.5357251156182</v>
       </c>
       <c r="H119" t="n">
-        <v>158.2020168342498</v>
+        <v>158.2020325726884</v>
       </c>
       <c r="I119" t="n">
         <v>-0</v>
       </c>
       <c r="J119" t="n">
-        <v>-3.868414251988102</v>
+        <v>-3.868420256283333</v>
       </c>
       <c r="K119" t="n">
-        <v>528.7376819444652</v>
+        <v>528.7377576883066</v>
       </c>
       <c r="L119" t="n">
         <v>-0</v>
@@ -4989,34 +4989,34 @@
         <v>67.24864959716797</v>
       </c>
       <c r="C120" t="n">
-        <v>113.9304275512695</v>
+        <v>113.9304428100586</v>
       </c>
       <c r="D120" t="n">
         <v>-1.716194845215868</v>
       </c>
       <c r="E120" t="n">
-        <v>1.092110523014678</v>
+        <v>1.092117218753663</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>364.1765511259076</v>
+        <v>364.1766101015007</v>
       </c>
       <c r="H120" t="n">
-        <v>159.9297577077181</v>
+        <v>159.929784210833</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.716194845215866</v>
+        <v>-1.716194845215872</v>
       </c>
       <c r="J120" t="n">
-        <v>-2.818551088093187</v>
+        <v>-2.818550721242294</v>
       </c>
       <c r="K120" t="n">
-        <v>524.1063088336257</v>
+        <v>524.1063943123337</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.8759302143564521</v>
+        <v>-0.8759282477237271</v>
       </c>
     </row>
     <row r="121">
@@ -5027,31 +5027,31 @@
         <v>73.14002227783203</v>
       </c>
       <c r="C121" t="n">
-        <v>113.3333969116211</v>
+        <v>113.3334045410156</v>
       </c>
       <c r="D121" t="n">
         <v>8.760581388555</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5240308954162165</v>
+        <v>-0.5240375217696047</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>333.1033263910144</v>
+        <v>333.1033743363639</v>
       </c>
       <c r="H121" t="n">
-        <v>222.0688842606763</v>
+        <v>222.0689162242426</v>
       </c>
       <c r="I121" t="n">
         <v>-0</v>
       </c>
       <c r="J121" t="n">
-        <v>-3.327811905004701</v>
+        <v>-3.327817979662486</v>
       </c>
       <c r="K121" t="n">
-        <v>555.1722106516906</v>
+        <v>555.1722905606064</v>
       </c>
       <c r="L121" t="n">
         <v>-0</v>
@@ -5065,34 +5065,34 @@
         <v>65.38979339599609</v>
       </c>
       <c r="C122" t="n">
-        <v>110.938606262207</v>
+        <v>110.9386138916016</v>
       </c>
       <c r="D122" t="n">
         <v>-10.59642674484794</v>
       </c>
       <c r="E122" t="n">
-        <v>-2.113049387623622</v>
+        <v>-2.113049245377063</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>297.8062764253389</v>
+        <v>297.8063192901944</v>
       </c>
       <c r="H122" t="n">
-        <v>217.3764590617034</v>
+        <v>217.3764906657492</v>
       </c>
       <c r="I122" t="n">
-        <v>-19.62817497291206</v>
+        <v>-19.628176420163</v>
       </c>
       <c r="J122" t="n">
-        <v>-2.113049387623628</v>
+        <v>-2.113049245377058</v>
       </c>
       <c r="K122" t="n">
-        <v>515.1827354870422</v>
+        <v>515.1828099559436</v>
       </c>
       <c r="L122" t="n">
-        <v>-7.203075801958214</v>
+        <v>-7.203075745059579</v>
       </c>
     </row>
     <row r="123">
@@ -5103,34 +5103,34 @@
         <v>61.28231811523438</v>
       </c>
       <c r="C123" t="n">
-        <v>110.6012344360352</v>
+        <v>110.6012420654297</v>
       </c>
       <c r="D123" t="n">
         <v>-6.281523564216096</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.3041067826059396</v>
+        <v>-0.3041067616921245</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>279.0995049959667</v>
+        <v>279.0995451682563</v>
       </c>
       <c r="H123" t="n">
-        <v>216.7154025059082</v>
+        <v>216.7154340593056</v>
       </c>
       <c r="I123" t="n">
-        <v>-24.67675010097911</v>
+        <v>-24.67675145732065</v>
       </c>
       <c r="J123" t="n">
-        <v>-2.410730243721987</v>
+        <v>-2.410730081436107</v>
       </c>
       <c r="K123" t="n">
-        <v>495.8149075018749</v>
+        <v>495.8149792275619</v>
       </c>
       <c r="L123" t="n">
-        <v>-10.69169205716169</v>
+        <v>-10.69169199224734</v>
       </c>
     </row>
     <row r="124">
@@ -5141,34 +5141,34 @@
         <v>65.61000061035156</v>
       </c>
       <c r="C124" t="n">
-        <v>106.1098175048828</v>
+        <v>106.1098098754883</v>
       </c>
       <c r="D124" t="n">
         <v>7.06187792534132</v>
       </c>
       <c r="E124" t="n">
-        <v>-4.060910309052557</v>
+        <v>-4.060923825145069</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>298.8091713290137</v>
+        <v>298.8092143382214</v>
       </c>
       <c r="H124" t="n">
-        <v>207.914784384241</v>
+        <v>207.9147853648247</v>
       </c>
       <c r="I124" t="n">
-        <v>-19.35751414371049</v>
+        <v>-19.35751559583519</v>
       </c>
       <c r="J124" t="n">
-        <v>-6.373742959783785</v>
+        <v>-6.373755994344194</v>
       </c>
       <c r="K124" t="n">
-        <v>506.7239557132548</v>
+        <v>506.7239997030462</v>
       </c>
       <c r="L124" t="n">
-        <v>-8.726707498843417</v>
+        <v>-8.726712712667577</v>
       </c>
     </row>
     <row r="125">
@@ -5179,34 +5179,34 @@
         <v>54.20000076293945</v>
       </c>
       <c r="C125" t="n">
-        <v>101.6232070922852</v>
+        <v>101.6231994628906</v>
       </c>
       <c r="D125" t="n">
         <v>-17.39064127612873</v>
       </c>
       <c r="E125" t="n">
-        <v>-4.228270784078203</v>
+        <v>-4.228271088094826</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>246.8443402430121</v>
+        <v>246.8443757726427</v>
       </c>
       <c r="H125" t="n">
-        <v>199.123584300343</v>
+        <v>199.1235846073694</v>
       </c>
       <c r="I125" t="n">
-        <v>-33.38175957513064</v>
+        <v>-33.38176077472156</v>
       </c>
       <c r="J125" t="n">
-        <v>-10.33251463244121</v>
+        <v>-10.33252740050446</v>
       </c>
       <c r="K125" t="n">
-        <v>445.967924543355</v>
+        <v>445.9679603800121</v>
       </c>
       <c r="L125" t="n">
-        <v>-19.67034444684215</v>
+        <v>-19.67034955406744</v>
       </c>
     </row>
     <row r="126">
@@ -5223,28 +5223,28 @@
         <v>-0.5166099447467154</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6183953897148431</v>
+        <v>0.6184029436733907</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>245.5691178332722</v>
+        <v>245.5691531793533</v>
       </c>
       <c r="H126" t="n">
-        <v>200.3549553654912</v>
+        <v>200.3549707161294</v>
       </c>
       <c r="I126" t="n">
-        <v>-33.7259160301808</v>
+        <v>-33.72591722357449</v>
       </c>
       <c r="J126" t="n">
-        <v>-9.778015036854992</v>
+        <v>-9.778021110431643</v>
       </c>
       <c r="K126" t="n">
-        <v>445.9240731987635</v>
+        <v>445.9241238954827</v>
       </c>
       <c r="L126" t="n">
-        <v>-19.67824313913081</v>
+        <v>-19.67824556856146</v>
       </c>
     </row>
     <row r="127">
@@ -5255,34 +5255,34 @@
         <v>44.90000152587891</v>
       </c>
       <c r="C127" t="n">
-        <v>101.3687515258789</v>
+        <v>101.3687362670898</v>
       </c>
       <c r="D127" t="n">
         <v>-16.72848098919518</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.8634470715421338</v>
+        <v>-0.863461994323822</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>204.489134641199</v>
+        <v>204.4891640744176</v>
       </c>
       <c r="H127" t="n">
-        <v>198.6249963706983</v>
+        <v>198.624981690257</v>
       </c>
       <c r="I127" t="n">
-        <v>-44.81256356783526</v>
+        <v>-44.81256456159232</v>
       </c>
       <c r="J127" t="n">
-        <v>-10.55703412390646</v>
+        <v>-10.55705360866993</v>
       </c>
       <c r="K127" t="n">
-        <v>403.1141310118973</v>
+        <v>403.1141457646745</v>
       </c>
       <c r="L127" t="n">
-        <v>-27.38935355955578</v>
+        <v>-27.38936135346117</v>
       </c>
     </row>
     <row r="128">
@@ -5299,28 +5299,28 @@
         <v>18.68596682521872</v>
       </c>
       <c r="E128" t="n">
-        <v>2.961463820140664</v>
+        <v>2.961479318679117</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>242.6999065014303</v>
+        <v>242.6999414345303</v>
       </c>
       <c r="H128" t="n">
-        <v>204.5072037759723</v>
+        <v>204.5072194447441</v>
       </c>
       <c r="I128" t="n">
-        <v>-34.50025750443228</v>
+        <v>-34.50025868388245</v>
       </c>
       <c r="J128" t="n">
-        <v>-7.90821304982519</v>
+        <v>-7.908219249273447</v>
       </c>
       <c r="K128" t="n">
-        <v>447.2071102774025</v>
+        <v>447.2071608792744</v>
       </c>
       <c r="L128" t="n">
-        <v>-19.44713699692442</v>
+        <v>-19.44713947670372</v>
       </c>
     </row>
     <row r="129">
@@ -5331,34 +5331,34 @@
         <v>48.65999984741211</v>
       </c>
       <c r="C129" t="n">
-        <v>100.3484802246094</v>
+        <v>100.3484725952148</v>
       </c>
       <c r="D129" t="n">
         <v>-8.688311106345225</v>
       </c>
       <c r="E129" t="n">
-        <v>-3.853828957031913</v>
+        <v>-3.853836266929078</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>221.613383569777</v>
+        <v>221.6134154677807</v>
       </c>
       <c r="H129" t="n">
-        <v>196.6258459376376</v>
+        <v>196.6258460532943</v>
       </c>
       <c r="I129" t="n">
-        <v>-40.19107890630221</v>
+        <v>-40.19107998327809</v>
       </c>
       <c r="J129" t="n">
-        <v>-11.45727300235916</v>
+        <v>-11.45728569470576</v>
       </c>
       <c r="K129" t="n">
-        <v>418.2392295074146</v>
+        <v>418.239261521075</v>
       </c>
       <c r="L129" t="n">
-        <v>-24.66495593926375</v>
+        <v>-24.66496101620238</v>
       </c>
     </row>
     <row r="130">
@@ -5375,28 +5375,28 @@
         <v>-18.37237701344637</v>
       </c>
       <c r="E130" t="n">
-        <v>-4.734972031972317</v>
+        <v>-4.734964789067031</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>180.8977372280826</v>
+        <v>180.8977632656647</v>
       </c>
       <c r="H130" t="n">
-        <v>187.3156671248615</v>
+        <v>187.3156814764657</v>
       </c>
       <c r="I130" t="n">
-        <v>-51.17939937731102</v>
+        <v>-51.17940025642083</v>
       </c>
       <c r="J130" t="n">
-        <v>-15.64974636204306</v>
+        <v>-15.64975204034566</v>
       </c>
       <c r="K130" t="n">
-        <v>368.2134043529441</v>
+        <v>368.2134447421304</v>
       </c>
       <c r="L130" t="n">
-        <v>-33.67582215242446</v>
+        <v>-33.6758244237455</v>
       </c>
     </row>
     <row r="131">
@@ -5419,22 +5419,22 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>209.362259456904</v>
+        <v>209.3622895915376</v>
       </c>
       <c r="H131" t="n">
-        <v>184.5920602976263</v>
+        <v>184.5920744405553</v>
       </c>
       <c r="I131" t="n">
-        <v>-43.49740681652618</v>
+        <v>-43.49740783396519</v>
       </c>
       <c r="J131" t="n">
-        <v>-16.87621572370207</v>
+        <v>-16.87622131944104</v>
       </c>
       <c r="K131" t="n">
-        <v>393.9543197545302</v>
+        <v>393.9543640320928</v>
       </c>
       <c r="L131" t="n">
-        <v>-29.03925805434575</v>
+        <v>-29.03926029264133</v>
       </c>
     </row>
     <row r="132">
@@ -5442,37 +5442,37 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>42.7400016784668</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="C132" t="n">
-        <v>93.45999908447266</v>
+        <v>93.41999816894531</v>
       </c>
       <c r="D132" t="n">
-        <v>-7.026320331663727</v>
+        <v>-5.264306981468392</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.7929444850586331</v>
+        <v>-0.8354051429469656</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>194.6517964538529</v>
+        <v>198.3408159640082</v>
       </c>
       <c r="H132" t="n">
-        <v>183.1283477356401</v>
+        <v>183.0499827572064</v>
       </c>
       <c r="I132" t="n">
-        <v>-47.46746000929384</v>
+        <v>-46.47187773807238</v>
       </c>
       <c r="J132" t="n">
-        <v>-17.53534118689302</v>
+        <v>-17.57064164155029</v>
       </c>
       <c r="K132" t="n">
-        <v>377.7801441894931</v>
+        <v>381.3907987212145</v>
       </c>
       <c r="L132" t="n">
-        <v>-31.95261993642754</v>
+        <v>-31.30226324226473</v>
       </c>
     </row>
   </sheetData>
